--- a/DadosLuisaFinalV5.xlsx
+++ b/DadosLuisaFinalV5.xlsx
@@ -1251,13 +1251,19 @@
       <c r="CR2" t="n">
         <v>131</v>
       </c>
-      <c r="CS2" t="inlineStr"/>
+      <c r="CS2" t="n">
+        <v>48</v>
+      </c>
       <c r="CT2" t="inlineStr"/>
       <c r="CU2" t="inlineStr"/>
-      <c r="CV2" t="inlineStr"/>
+      <c r="CV2" t="n">
+        <v>30</v>
+      </c>
       <c r="CW2" t="inlineStr"/>
       <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="inlineStr"/>
+      <c r="CY2" t="n">
+        <v>12</v>
+      </c>
       <c r="CZ2" t="inlineStr"/>
       <c r="DA2" t="inlineStr"/>
     </row>
@@ -1552,13 +1558,19 @@
       <c r="CR3" t="n">
         <v>69</v>
       </c>
-      <c r="CS3" t="inlineStr"/>
+      <c r="CS3" t="n">
+        <v>32</v>
+      </c>
       <c r="CT3" t="inlineStr"/>
       <c r="CU3" t="inlineStr"/>
-      <c r="CV3" t="inlineStr"/>
+      <c r="CV3" t="n">
+        <v>20</v>
+      </c>
       <c r="CW3" t="inlineStr"/>
       <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="inlineStr"/>
+      <c r="CY3" t="n">
+        <v>11</v>
+      </c>
       <c r="CZ3" t="inlineStr"/>
       <c r="DA3" t="inlineStr"/>
     </row>
@@ -1853,13 +1865,19 @@
       <c r="CR4" t="n">
         <v>3817</v>
       </c>
-      <c r="CS4" t="inlineStr"/>
+      <c r="CS4" t="n">
+        <v>652</v>
+      </c>
       <c r="CT4" t="inlineStr"/>
       <c r="CU4" t="inlineStr"/>
-      <c r="CV4" t="inlineStr"/>
+      <c r="CV4" t="n">
+        <v>1383</v>
+      </c>
       <c r="CW4" t="inlineStr"/>
       <c r="CX4" t="inlineStr"/>
-      <c r="CY4" t="inlineStr"/>
+      <c r="CY4" t="n">
+        <v>947</v>
+      </c>
       <c r="CZ4" t="inlineStr"/>
       <c r="DA4" t="inlineStr"/>
     </row>
@@ -2154,13 +2172,19 @@
       <c r="CR5" t="n">
         <v>305</v>
       </c>
-      <c r="CS5" t="inlineStr"/>
+      <c r="CS5" t="n">
+        <v>128</v>
+      </c>
       <c r="CT5" t="inlineStr"/>
       <c r="CU5" t="inlineStr"/>
-      <c r="CV5" t="inlineStr"/>
+      <c r="CV5" t="n">
+        <v>105</v>
+      </c>
       <c r="CW5" t="inlineStr"/>
       <c r="CX5" t="inlineStr"/>
-      <c r="CY5" t="inlineStr"/>
+      <c r="CY5" t="n">
+        <v>41</v>
+      </c>
       <c r="CZ5" t="inlineStr"/>
       <c r="DA5" t="inlineStr"/>
     </row>
@@ -2455,13 +2479,19 @@
       <c r="CR6" t="n">
         <v>82</v>
       </c>
-      <c r="CS6" t="inlineStr"/>
+      <c r="CS6" t="n">
+        <v>21</v>
+      </c>
       <c r="CT6" t="inlineStr"/>
       <c r="CU6" t="inlineStr"/>
-      <c r="CV6" t="inlineStr"/>
+      <c r="CV6" t="n">
+        <v>34</v>
+      </c>
       <c r="CW6" t="inlineStr"/>
       <c r="CX6" t="inlineStr"/>
-      <c r="CY6" t="inlineStr"/>
+      <c r="CY6" t="n">
+        <v>21</v>
+      </c>
       <c r="CZ6" t="inlineStr"/>
       <c r="DA6" t="inlineStr"/>
     </row>
@@ -2758,13 +2788,19 @@
       <c r="CR7" t="n">
         <v>591</v>
       </c>
-      <c r="CS7" t="inlineStr"/>
+      <c r="CS7" t="n">
+        <v>230</v>
+      </c>
       <c r="CT7" t="inlineStr"/>
       <c r="CU7" t="inlineStr"/>
-      <c r="CV7" t="inlineStr"/>
+      <c r="CV7" t="n">
+        <v>416</v>
+      </c>
       <c r="CW7" t="inlineStr"/>
       <c r="CX7" t="inlineStr"/>
-      <c r="CY7" t="inlineStr"/>
+      <c r="CY7" t="n">
+        <v>340</v>
+      </c>
       <c r="CZ7" t="inlineStr"/>
       <c r="DA7" t="inlineStr"/>
     </row>
@@ -3059,13 +3095,19 @@
       <c r="CR8" t="n">
         <v>380</v>
       </c>
-      <c r="CS8" t="inlineStr"/>
+      <c r="CS8" t="n">
+        <v>94</v>
+      </c>
       <c r="CT8" t="inlineStr"/>
       <c r="CU8" t="inlineStr"/>
-      <c r="CV8" t="inlineStr"/>
+      <c r="CV8" t="n">
+        <v>128</v>
+      </c>
       <c r="CW8" t="inlineStr"/>
       <c r="CX8" t="inlineStr"/>
-      <c r="CY8" t="inlineStr"/>
+      <c r="CY8" t="n">
+        <v>77</v>
+      </c>
       <c r="CZ8" t="inlineStr"/>
       <c r="DA8" t="inlineStr"/>
     </row>
@@ -3360,13 +3402,19 @@
       <c r="CR9" t="n">
         <v>309</v>
       </c>
-      <c r="CS9" t="inlineStr"/>
+      <c r="CS9" t="n">
+        <v>247</v>
+      </c>
       <c r="CT9" t="inlineStr"/>
       <c r="CU9" t="inlineStr"/>
-      <c r="CV9" t="inlineStr"/>
+      <c r="CV9" t="n">
+        <v>103</v>
+      </c>
       <c r="CW9" t="inlineStr"/>
       <c r="CX9" t="inlineStr"/>
-      <c r="CY9" t="inlineStr"/>
+      <c r="CY9" t="n">
+        <v>53</v>
+      </c>
       <c r="CZ9" t="inlineStr"/>
       <c r="DA9" t="inlineStr"/>
     </row>
@@ -3661,13 +3709,19 @@
       <c r="CR10" t="n">
         <v>117</v>
       </c>
-      <c r="CS10" t="inlineStr"/>
+      <c r="CS10" t="n">
+        <v>28</v>
+      </c>
       <c r="CT10" t="inlineStr"/>
       <c r="CU10" t="inlineStr"/>
-      <c r="CV10" t="inlineStr"/>
+      <c r="CV10" t="n">
+        <v>65</v>
+      </c>
       <c r="CW10" t="inlineStr"/>
       <c r="CX10" t="inlineStr"/>
-      <c r="CY10" t="inlineStr"/>
+      <c r="CY10" t="n">
+        <v>45</v>
+      </c>
       <c r="CZ10" t="inlineStr"/>
       <c r="DA10" t="inlineStr"/>
     </row>
@@ -3962,13 +4016,19 @@
       <c r="CR11" t="n">
         <v>314</v>
       </c>
-      <c r="CS11" t="inlineStr"/>
+      <c r="CS11" t="n">
+        <v>75</v>
+      </c>
       <c r="CT11" t="inlineStr"/>
       <c r="CU11" t="inlineStr"/>
-      <c r="CV11" t="inlineStr"/>
+      <c r="CV11" t="n">
+        <v>127</v>
+      </c>
       <c r="CW11" t="inlineStr"/>
       <c r="CX11" t="inlineStr"/>
-      <c r="CY11" t="inlineStr"/>
+      <c r="CY11" t="n">
+        <v>130</v>
+      </c>
       <c r="CZ11" t="inlineStr"/>
       <c r="DA11" t="inlineStr"/>
     </row>
@@ -4263,13 +4323,19 @@
       <c r="CR12" t="n">
         <v>225</v>
       </c>
-      <c r="CS12" t="inlineStr"/>
+      <c r="CS12" t="n">
+        <v>53</v>
+      </c>
       <c r="CT12" t="inlineStr"/>
       <c r="CU12" t="inlineStr"/>
-      <c r="CV12" t="inlineStr"/>
+      <c r="CV12" t="n">
+        <v>169</v>
+      </c>
       <c r="CW12" t="inlineStr"/>
       <c r="CX12" t="inlineStr"/>
-      <c r="CY12" t="inlineStr"/>
+      <c r="CY12" t="n">
+        <v>120</v>
+      </c>
       <c r="CZ12" t="inlineStr"/>
       <c r="DA12" t="inlineStr"/>
     </row>
@@ -4564,13 +4630,19 @@
       <c r="CR13" t="n">
         <v>318</v>
       </c>
-      <c r="CS13" t="inlineStr"/>
+      <c r="CS13" t="n">
+        <v>70</v>
+      </c>
       <c r="CT13" t="inlineStr"/>
       <c r="CU13" t="inlineStr"/>
-      <c r="CV13" t="inlineStr"/>
+      <c r="CV13" t="n">
+        <v>83</v>
+      </c>
       <c r="CW13" t="inlineStr"/>
       <c r="CX13" t="inlineStr"/>
-      <c r="CY13" t="inlineStr"/>
+      <c r="CY13" t="n">
+        <v>52</v>
+      </c>
       <c r="CZ13" t="inlineStr"/>
       <c r="DA13" t="inlineStr"/>
     </row>
@@ -4865,13 +4937,19 @@
       <c r="CR14" t="n">
         <v>559</v>
       </c>
-      <c r="CS14" t="inlineStr"/>
+      <c r="CS14" t="n">
+        <v>104</v>
+      </c>
       <c r="CT14" t="inlineStr"/>
       <c r="CU14" t="inlineStr"/>
-      <c r="CV14" t="inlineStr"/>
+      <c r="CV14" t="n">
+        <v>317</v>
+      </c>
       <c r="CW14" t="inlineStr"/>
       <c r="CX14" t="inlineStr"/>
-      <c r="CY14" t="inlineStr"/>
+      <c r="CY14" t="n">
+        <v>256</v>
+      </c>
       <c r="CZ14" t="inlineStr"/>
       <c r="DA14" t="inlineStr"/>
     </row>
@@ -5166,13 +5244,19 @@
       <c r="CR15" t="n">
         <v>77</v>
       </c>
-      <c r="CS15" t="inlineStr"/>
+      <c r="CS15" t="n">
+        <v>37</v>
+      </c>
       <c r="CT15" t="inlineStr"/>
       <c r="CU15" t="inlineStr"/>
-      <c r="CV15" t="inlineStr"/>
+      <c r="CV15" t="n">
+        <v>31</v>
+      </c>
       <c r="CW15" t="inlineStr"/>
       <c r="CX15" t="inlineStr"/>
-      <c r="CY15" t="inlineStr"/>
+      <c r="CY15" t="n">
+        <v>20</v>
+      </c>
       <c r="CZ15" t="inlineStr"/>
       <c r="DA15" t="inlineStr"/>
     </row>
@@ -5467,13 +5551,19 @@
       <c r="CR16" t="n">
         <v>959</v>
       </c>
-      <c r="CS16" t="inlineStr"/>
+      <c r="CS16" t="n">
+        <v>309</v>
+      </c>
       <c r="CT16" t="inlineStr"/>
       <c r="CU16" t="inlineStr"/>
-      <c r="CV16" t="inlineStr"/>
+      <c r="CV16" t="n">
+        <v>258</v>
+      </c>
       <c r="CW16" t="inlineStr"/>
       <c r="CX16" t="inlineStr"/>
-      <c r="CY16" t="inlineStr"/>
+      <c r="CY16" t="n">
+        <v>221</v>
+      </c>
       <c r="CZ16" t="inlineStr"/>
       <c r="DA16" t="inlineStr"/>
     </row>
@@ -5768,13 +5858,19 @@
       <c r="CR17" t="n">
         <v>345</v>
       </c>
-      <c r="CS17" t="inlineStr"/>
+      <c r="CS17" t="n">
+        <v>113</v>
+      </c>
       <c r="CT17" t="inlineStr"/>
       <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
+      <c r="CV17" t="n">
+        <v>57</v>
+      </c>
       <c r="CW17" t="inlineStr"/>
       <c r="CX17" t="inlineStr"/>
-      <c r="CY17" t="inlineStr"/>
+      <c r="CY17" t="n">
+        <v>63</v>
+      </c>
       <c r="CZ17" t="inlineStr"/>
       <c r="DA17" t="inlineStr"/>
     </row>
@@ -6069,13 +6165,19 @@
       <c r="CR18" t="n">
         <v>156</v>
       </c>
-      <c r="CS18" t="inlineStr"/>
+      <c r="CS18" t="n">
+        <v>103</v>
+      </c>
       <c r="CT18" t="inlineStr"/>
       <c r="CU18" t="inlineStr"/>
-      <c r="CV18" t="inlineStr"/>
+      <c r="CV18" t="n">
+        <v>83</v>
+      </c>
       <c r="CW18" t="inlineStr"/>
       <c r="CX18" t="inlineStr"/>
-      <c r="CY18" t="inlineStr"/>
+      <c r="CY18" t="n">
+        <v>31</v>
+      </c>
       <c r="CZ18" t="inlineStr"/>
       <c r="DA18" t="inlineStr"/>
     </row>
@@ -6370,13 +6472,19 @@
       <c r="CR19" t="n">
         <v>739</v>
       </c>
-      <c r="CS19" t="inlineStr"/>
+      <c r="CS19" t="n">
+        <v>178</v>
+      </c>
       <c r="CT19" t="inlineStr"/>
       <c r="CU19" t="inlineStr"/>
-      <c r="CV19" t="inlineStr"/>
+      <c r="CV19" t="n">
+        <v>350</v>
+      </c>
       <c r="CW19" t="inlineStr"/>
       <c r="CX19" t="inlineStr"/>
-      <c r="CY19" t="inlineStr"/>
+      <c r="CY19" t="n">
+        <v>60</v>
+      </c>
       <c r="CZ19" t="inlineStr"/>
       <c r="DA19" t="inlineStr"/>
     </row>
@@ -6671,13 +6779,19 @@
       <c r="CR20" t="n">
         <v>215</v>
       </c>
-      <c r="CS20" t="inlineStr"/>
+      <c r="CS20" t="n">
+        <v>90</v>
+      </c>
       <c r="CT20" t="inlineStr"/>
       <c r="CU20" t="inlineStr"/>
-      <c r="CV20" t="inlineStr"/>
+      <c r="CV20" t="n">
+        <v>77</v>
+      </c>
       <c r="CW20" t="inlineStr"/>
       <c r="CX20" t="inlineStr"/>
-      <c r="CY20" t="inlineStr"/>
+      <c r="CY20" t="n">
+        <v>40</v>
+      </c>
       <c r="CZ20" t="inlineStr"/>
       <c r="DA20" t="inlineStr"/>
     </row>
@@ -6972,13 +7086,19 @@
       <c r="CR21" t="n">
         <v>235</v>
       </c>
-      <c r="CS21" t="inlineStr"/>
+      <c r="CS21" t="n">
+        <v>158</v>
+      </c>
       <c r="CT21" t="inlineStr"/>
       <c r="CU21" t="inlineStr"/>
-      <c r="CV21" t="inlineStr"/>
+      <c r="CV21" t="n">
+        <v>204</v>
+      </c>
       <c r="CW21" t="inlineStr"/>
       <c r="CX21" t="inlineStr"/>
-      <c r="CY21" t="inlineStr"/>
+      <c r="CY21" t="n">
+        <v>108</v>
+      </c>
       <c r="CZ21" t="inlineStr"/>
       <c r="DA21" t="inlineStr"/>
     </row>
@@ -7273,13 +7393,19 @@
       <c r="CR22" t="n">
         <v>505</v>
       </c>
-      <c r="CS22" t="inlineStr"/>
+      <c r="CS22" t="n">
+        <v>129</v>
+      </c>
       <c r="CT22" t="inlineStr"/>
       <c r="CU22" t="inlineStr"/>
-      <c r="CV22" t="inlineStr"/>
+      <c r="CV22" t="n">
+        <v>304</v>
+      </c>
       <c r="CW22" t="inlineStr"/>
       <c r="CX22" t="inlineStr"/>
-      <c r="CY22" t="inlineStr"/>
+      <c r="CY22" t="n">
+        <v>102</v>
+      </c>
       <c r="CZ22" t="inlineStr"/>
       <c r="DA22" t="inlineStr"/>
     </row>
@@ -7574,13 +7700,19 @@
       <c r="CR23" t="n">
         <v>328</v>
       </c>
-      <c r="CS23" t="inlineStr"/>
+      <c r="CS23" t="n">
+        <v>107</v>
+      </c>
       <c r="CT23" t="inlineStr"/>
       <c r="CU23" t="inlineStr"/>
-      <c r="CV23" t="inlineStr"/>
+      <c r="CV23" t="n">
+        <v>173</v>
+      </c>
       <c r="CW23" t="inlineStr"/>
       <c r="CX23" t="inlineStr"/>
-      <c r="CY23" t="inlineStr"/>
+      <c r="CY23" t="n">
+        <v>97</v>
+      </c>
       <c r="CZ23" t="inlineStr"/>
       <c r="DA23" t="inlineStr"/>
     </row>
@@ -7875,13 +8007,19 @@
       <c r="CR24" t="n">
         <v>1288</v>
       </c>
-      <c r="CS24" t="inlineStr"/>
+      <c r="CS24" t="n">
+        <v>415</v>
+      </c>
       <c r="CT24" t="inlineStr"/>
       <c r="CU24" t="inlineStr"/>
-      <c r="CV24" t="inlineStr"/>
+      <c r="CV24" t="n">
+        <v>880</v>
+      </c>
       <c r="CW24" t="inlineStr"/>
       <c r="CX24" t="inlineStr"/>
-      <c r="CY24" t="inlineStr"/>
+      <c r="CY24" t="n">
+        <v>614</v>
+      </c>
       <c r="CZ24" t="inlineStr"/>
       <c r="DA24" t="inlineStr"/>
     </row>
@@ -8176,13 +8314,19 @@
       <c r="CR25" t="n">
         <v>267</v>
       </c>
-      <c r="CS25" t="inlineStr"/>
+      <c r="CS25" t="n">
+        <v>146</v>
+      </c>
       <c r="CT25" t="inlineStr"/>
       <c r="CU25" t="inlineStr"/>
-      <c r="CV25" t="inlineStr"/>
+      <c r="CV25" t="n">
+        <v>169</v>
+      </c>
       <c r="CW25" t="inlineStr"/>
       <c r="CX25" t="inlineStr"/>
-      <c r="CY25" t="inlineStr"/>
+      <c r="CY25" t="n">
+        <v>75</v>
+      </c>
       <c r="CZ25" t="inlineStr"/>
       <c r="DA25" t="inlineStr"/>
     </row>
@@ -8477,13 +8621,19 @@
       <c r="CR26" t="n">
         <v>243</v>
       </c>
-      <c r="CS26" t="inlineStr"/>
+      <c r="CS26" t="n">
+        <v>72</v>
+      </c>
       <c r="CT26" t="inlineStr"/>
       <c r="CU26" t="inlineStr"/>
-      <c r="CV26" t="inlineStr"/>
+      <c r="CV26" t="n">
+        <v>73</v>
+      </c>
       <c r="CW26" t="inlineStr"/>
       <c r="CX26" t="inlineStr"/>
-      <c r="CY26" t="inlineStr"/>
+      <c r="CY26" t="n">
+        <v>81</v>
+      </c>
       <c r="CZ26" t="inlineStr"/>
       <c r="DA26" t="inlineStr"/>
     </row>
@@ -8778,13 +8928,19 @@
       <c r="CR27" t="n">
         <v>46</v>
       </c>
-      <c r="CS27" t="inlineStr"/>
+      <c r="CS27" t="n">
+        <v>15</v>
+      </c>
       <c r="CT27" t="inlineStr"/>
       <c r="CU27" t="inlineStr"/>
-      <c r="CV27" t="inlineStr"/>
+      <c r="CV27" t="n">
+        <v>8</v>
+      </c>
       <c r="CW27" t="inlineStr"/>
       <c r="CX27" t="inlineStr"/>
-      <c r="CY27" t="inlineStr"/>
+      <c r="CY27" t="n">
+        <v>7</v>
+      </c>
       <c r="CZ27" t="inlineStr"/>
       <c r="DA27" t="inlineStr"/>
     </row>
@@ -9079,13 +9235,19 @@
       <c r="CR28" t="n">
         <v>407</v>
       </c>
-      <c r="CS28" t="inlineStr"/>
+      <c r="CS28" t="n">
+        <v>129</v>
+      </c>
       <c r="CT28" t="inlineStr"/>
       <c r="CU28" t="inlineStr"/>
-      <c r="CV28" t="inlineStr"/>
+      <c r="CV28" t="n">
+        <v>118</v>
+      </c>
       <c r="CW28" t="inlineStr"/>
       <c r="CX28" t="inlineStr"/>
-      <c r="CY28" t="inlineStr"/>
+      <c r="CY28" t="n">
+        <v>80</v>
+      </c>
       <c r="CZ28" t="inlineStr"/>
       <c r="DA28" t="inlineStr"/>
     </row>
@@ -9380,13 +9542,19 @@
       <c r="CR29" t="n">
         <v>302</v>
       </c>
-      <c r="CS29" t="inlineStr"/>
+      <c r="CS29" t="n">
+        <v>138</v>
+      </c>
       <c r="CT29" t="inlineStr"/>
       <c r="CU29" t="inlineStr"/>
-      <c r="CV29" t="inlineStr"/>
+      <c r="CV29" t="n">
+        <v>129</v>
+      </c>
       <c r="CW29" t="inlineStr"/>
       <c r="CX29" t="inlineStr"/>
-      <c r="CY29" t="inlineStr"/>
+      <c r="CY29" t="n">
+        <v>47</v>
+      </c>
       <c r="CZ29" t="inlineStr"/>
       <c r="DA29" t="inlineStr"/>
     </row>
@@ -9681,13 +9849,19 @@
       <c r="CR30" t="n">
         <v>629</v>
       </c>
-      <c r="CS30" t="inlineStr"/>
+      <c r="CS30" t="n">
+        <v>184</v>
+      </c>
       <c r="CT30" t="inlineStr"/>
       <c r="CU30" t="inlineStr"/>
-      <c r="CV30" t="inlineStr"/>
+      <c r="CV30" t="n">
+        <v>181</v>
+      </c>
       <c r="CW30" t="inlineStr"/>
       <c r="CX30" t="inlineStr"/>
-      <c r="CY30" t="inlineStr"/>
+      <c r="CY30" t="n">
+        <v>80</v>
+      </c>
       <c r="CZ30" t="inlineStr"/>
       <c r="DA30" t="inlineStr"/>
     </row>
@@ -9982,13 +10156,19 @@
       <c r="CR31" t="n">
         <v>1061</v>
       </c>
-      <c r="CS31" t="inlineStr"/>
+      <c r="CS31" t="n">
+        <v>551</v>
+      </c>
       <c r="CT31" t="inlineStr"/>
       <c r="CU31" t="inlineStr"/>
-      <c r="CV31" t="inlineStr"/>
+      <c r="CV31" t="n">
+        <v>287</v>
+      </c>
       <c r="CW31" t="inlineStr"/>
       <c r="CX31" t="inlineStr"/>
-      <c r="CY31" t="inlineStr"/>
+      <c r="CY31" t="n">
+        <v>225</v>
+      </c>
       <c r="CZ31" t="inlineStr"/>
       <c r="DA31" t="inlineStr"/>
     </row>
@@ -10283,13 +10463,19 @@
       <c r="CR32" t="n">
         <v>229</v>
       </c>
-      <c r="CS32" t="inlineStr"/>
+      <c r="CS32" t="n">
+        <v>126</v>
+      </c>
       <c r="CT32" t="inlineStr"/>
       <c r="CU32" t="inlineStr"/>
-      <c r="CV32" t="inlineStr"/>
+      <c r="CV32" t="n">
+        <v>82</v>
+      </c>
       <c r="CW32" t="inlineStr"/>
       <c r="CX32" t="inlineStr"/>
-      <c r="CY32" t="inlineStr"/>
+      <c r="CY32" t="n">
+        <v>65</v>
+      </c>
       <c r="CZ32" t="inlineStr"/>
       <c r="DA32" t="inlineStr"/>
     </row>
@@ -10584,13 +10770,19 @@
       <c r="CR33" t="n">
         <v>508</v>
       </c>
-      <c r="CS33" t="inlineStr"/>
+      <c r="CS33" t="n">
+        <v>216</v>
+      </c>
       <c r="CT33" t="inlineStr"/>
       <c r="CU33" t="inlineStr"/>
-      <c r="CV33" t="inlineStr"/>
+      <c r="CV33" t="n">
+        <v>138</v>
+      </c>
       <c r="CW33" t="inlineStr"/>
       <c r="CX33" t="inlineStr"/>
-      <c r="CY33" t="inlineStr"/>
+      <c r="CY33" t="n">
+        <v>79</v>
+      </c>
       <c r="CZ33" t="inlineStr"/>
       <c r="DA33" t="inlineStr"/>
     </row>
@@ -10885,13 +11077,19 @@
       <c r="CR34" t="n">
         <v>640</v>
       </c>
-      <c r="CS34" t="inlineStr"/>
+      <c r="CS34" t="n">
+        <v>234</v>
+      </c>
       <c r="CT34" t="inlineStr"/>
       <c r="CU34" t="inlineStr"/>
-      <c r="CV34" t="inlineStr"/>
+      <c r="CV34" t="n">
+        <v>201</v>
+      </c>
       <c r="CW34" t="inlineStr"/>
       <c r="CX34" t="inlineStr"/>
-      <c r="CY34" t="inlineStr"/>
+      <c r="CY34" t="n">
+        <v>126</v>
+      </c>
       <c r="CZ34" t="inlineStr"/>
       <c r="DA34" t="inlineStr"/>
     </row>
@@ -11186,13 +11384,19 @@
       <c r="CR35" t="n">
         <v>340</v>
       </c>
-      <c r="CS35" t="inlineStr"/>
+      <c r="CS35" t="n">
+        <v>123</v>
+      </c>
       <c r="CT35" t="inlineStr"/>
       <c r="CU35" t="inlineStr"/>
-      <c r="CV35" t="inlineStr"/>
+      <c r="CV35" t="n">
+        <v>147</v>
+      </c>
       <c r="CW35" t="inlineStr"/>
       <c r="CX35" t="inlineStr"/>
-      <c r="CY35" t="inlineStr"/>
+      <c r="CY35" t="n">
+        <v>77</v>
+      </c>
       <c r="CZ35" t="inlineStr"/>
       <c r="DA35" t="inlineStr"/>
     </row>
@@ -11487,13 +11691,19 @@
       <c r="CR36" t="n">
         <v>499</v>
       </c>
-      <c r="CS36" t="inlineStr"/>
+      <c r="CS36" t="n">
+        <v>106</v>
+      </c>
       <c r="CT36" t="inlineStr"/>
       <c r="CU36" t="inlineStr"/>
-      <c r="CV36" t="inlineStr"/>
+      <c r="CV36" t="n">
+        <v>218</v>
+      </c>
       <c r="CW36" t="inlineStr"/>
       <c r="CX36" t="inlineStr"/>
-      <c r="CY36" t="inlineStr"/>
+      <c r="CY36" t="n">
+        <v>137</v>
+      </c>
       <c r="CZ36" t="inlineStr"/>
       <c r="DA36" t="inlineStr"/>
     </row>
@@ -11788,13 +11998,19 @@
       <c r="CR37" t="n">
         <v>505</v>
       </c>
-      <c r="CS37" t="inlineStr"/>
+      <c r="CS37" t="n">
+        <v>177</v>
+      </c>
       <c r="CT37" t="inlineStr"/>
       <c r="CU37" t="inlineStr"/>
-      <c r="CV37" t="inlineStr"/>
+      <c r="CV37" t="n">
+        <v>169</v>
+      </c>
       <c r="CW37" t="inlineStr"/>
       <c r="CX37" t="inlineStr"/>
-      <c r="CY37" t="inlineStr"/>
+      <c r="CY37" t="n">
+        <v>116</v>
+      </c>
       <c r="CZ37" t="inlineStr"/>
       <c r="DA37" t="inlineStr"/>
     </row>
@@ -12089,13 +12305,19 @@
       <c r="CR38" t="n">
         <v>1080</v>
       </c>
-      <c r="CS38" t="inlineStr"/>
+      <c r="CS38" t="n">
+        <v>363</v>
+      </c>
       <c r="CT38" t="inlineStr"/>
       <c r="CU38" t="inlineStr"/>
-      <c r="CV38" t="inlineStr"/>
+      <c r="CV38" t="n">
+        <v>511</v>
+      </c>
       <c r="CW38" t="inlineStr"/>
       <c r="CX38" t="inlineStr"/>
-      <c r="CY38" t="inlineStr"/>
+      <c r="CY38" t="n">
+        <v>289</v>
+      </c>
       <c r="CZ38" t="inlineStr"/>
       <c r="DA38" t="inlineStr"/>
     </row>
@@ -12390,13 +12612,19 @@
       <c r="CR39" t="n">
         <v>447</v>
       </c>
-      <c r="CS39" t="inlineStr"/>
+      <c r="CS39" t="n">
+        <v>107</v>
+      </c>
       <c r="CT39" t="inlineStr"/>
       <c r="CU39" t="inlineStr"/>
-      <c r="CV39" t="inlineStr"/>
+      <c r="CV39" t="n">
+        <v>201</v>
+      </c>
       <c r="CW39" t="inlineStr"/>
       <c r="CX39" t="inlineStr"/>
-      <c r="CY39" t="inlineStr"/>
+      <c r="CY39" t="n">
+        <v>97</v>
+      </c>
       <c r="CZ39" t="inlineStr"/>
       <c r="DA39" t="inlineStr"/>
     </row>
@@ -12691,13 +12919,19 @@
       <c r="CR40" t="n">
         <v>391</v>
       </c>
-      <c r="CS40" t="inlineStr"/>
+      <c r="CS40" t="n">
+        <v>109</v>
+      </c>
       <c r="CT40" t="inlineStr"/>
       <c r="CU40" t="inlineStr"/>
-      <c r="CV40" t="inlineStr"/>
+      <c r="CV40" t="n">
+        <v>224</v>
+      </c>
       <c r="CW40" t="inlineStr"/>
       <c r="CX40" t="inlineStr"/>
-      <c r="CY40" t="inlineStr"/>
+      <c r="CY40" t="n">
+        <v>338</v>
+      </c>
       <c r="CZ40" t="inlineStr"/>
       <c r="DA40" t="inlineStr"/>
     </row>
@@ -12992,13 +13226,19 @@
       <c r="CR41" t="n">
         <v>162</v>
       </c>
-      <c r="CS41" t="inlineStr"/>
+      <c r="CS41" t="n">
+        <v>96</v>
+      </c>
       <c r="CT41" t="inlineStr"/>
       <c r="CU41" t="inlineStr"/>
-      <c r="CV41" t="inlineStr"/>
+      <c r="CV41" t="n">
+        <v>58</v>
+      </c>
       <c r="CW41" t="inlineStr"/>
       <c r="CX41" t="inlineStr"/>
-      <c r="CY41" t="inlineStr"/>
+      <c r="CY41" t="n">
+        <v>56</v>
+      </c>
       <c r="CZ41" t="inlineStr"/>
       <c r="DA41" t="inlineStr"/>
     </row>
@@ -13293,13 +13533,19 @@
       <c r="CR42" t="n">
         <v>725</v>
       </c>
-      <c r="CS42" t="inlineStr"/>
+      <c r="CS42" t="n">
+        <v>270</v>
+      </c>
       <c r="CT42" t="inlineStr"/>
       <c r="CU42" t="inlineStr"/>
-      <c r="CV42" t="inlineStr"/>
+      <c r="CV42" t="n">
+        <v>185</v>
+      </c>
       <c r="CW42" t="inlineStr"/>
       <c r="CX42" t="inlineStr"/>
-      <c r="CY42" t="inlineStr"/>
+      <c r="CY42" t="n">
+        <v>115</v>
+      </c>
       <c r="CZ42" t="inlineStr"/>
       <c r="DA42" t="inlineStr"/>
     </row>
@@ -13592,13 +13838,19 @@
       <c r="CR43" t="n">
         <v>203</v>
       </c>
-      <c r="CS43" t="inlineStr"/>
+      <c r="CS43" t="n">
+        <v>98</v>
+      </c>
       <c r="CT43" t="inlineStr"/>
       <c r="CU43" t="inlineStr"/>
-      <c r="CV43" t="inlineStr"/>
+      <c r="CV43" t="n">
+        <v>88</v>
+      </c>
       <c r="CW43" t="inlineStr"/>
       <c r="CX43" t="inlineStr"/>
-      <c r="CY43" t="inlineStr"/>
+      <c r="CY43" t="n">
+        <v>40</v>
+      </c>
       <c r="CZ43" t="inlineStr"/>
       <c r="DA43" t="inlineStr"/>
     </row>
@@ -13893,13 +14145,19 @@
       <c r="CR44" t="n">
         <v>798</v>
       </c>
-      <c r="CS44" t="inlineStr"/>
+      <c r="CS44" t="n">
+        <v>221</v>
+      </c>
       <c r="CT44" t="inlineStr"/>
       <c r="CU44" t="inlineStr"/>
-      <c r="CV44" t="inlineStr"/>
+      <c r="CV44" t="n">
+        <v>210</v>
+      </c>
       <c r="CW44" t="inlineStr"/>
       <c r="CX44" t="inlineStr"/>
-      <c r="CY44" t="inlineStr"/>
+      <c r="CY44" t="n">
+        <v>177</v>
+      </c>
       <c r="CZ44" t="inlineStr"/>
       <c r="DA44" t="inlineStr"/>
     </row>
@@ -14194,13 +14452,19 @@
       <c r="CR45" t="n">
         <v>196</v>
       </c>
-      <c r="CS45" t="inlineStr"/>
+      <c r="CS45" t="n">
+        <v>64</v>
+      </c>
       <c r="CT45" t="inlineStr"/>
       <c r="CU45" t="inlineStr"/>
-      <c r="CV45" t="inlineStr"/>
+      <c r="CV45" t="n">
+        <v>87</v>
+      </c>
       <c r="CW45" t="inlineStr"/>
       <c r="CX45" t="inlineStr"/>
-      <c r="CY45" t="inlineStr"/>
+      <c r="CY45" t="n">
+        <v>26</v>
+      </c>
       <c r="CZ45" t="inlineStr"/>
       <c r="DA45" t="inlineStr"/>
     </row>
@@ -14495,13 +14759,19 @@
       <c r="CR46" t="n">
         <v>229</v>
       </c>
-      <c r="CS46" t="inlineStr"/>
+      <c r="CS46" t="n">
+        <v>79</v>
+      </c>
       <c r="CT46" t="inlineStr"/>
       <c r="CU46" t="inlineStr"/>
-      <c r="CV46" t="inlineStr"/>
+      <c r="CV46" t="n">
+        <v>105</v>
+      </c>
       <c r="CW46" t="inlineStr"/>
       <c r="CX46" t="inlineStr"/>
-      <c r="CY46" t="inlineStr"/>
+      <c r="CY46" t="n">
+        <v>62</v>
+      </c>
       <c r="CZ46" t="inlineStr"/>
       <c r="DA46" t="inlineStr"/>
     </row>
@@ -14796,13 +15066,19 @@
       <c r="CR47" t="n">
         <v>388</v>
       </c>
-      <c r="CS47" t="inlineStr"/>
+      <c r="CS47" t="n">
+        <v>110</v>
+      </c>
       <c r="CT47" t="inlineStr"/>
       <c r="CU47" t="inlineStr"/>
-      <c r="CV47" t="inlineStr"/>
+      <c r="CV47" t="n">
+        <v>137</v>
+      </c>
       <c r="CW47" t="inlineStr"/>
       <c r="CX47" t="inlineStr"/>
-      <c r="CY47" t="inlineStr"/>
+      <c r="CY47" t="n">
+        <v>82</v>
+      </c>
       <c r="CZ47" t="inlineStr"/>
       <c r="DA47" t="inlineStr"/>
     </row>
@@ -15097,13 +15373,19 @@
       <c r="CR48" t="n">
         <v>1535</v>
       </c>
-      <c r="CS48" t="inlineStr"/>
+      <c r="CS48" t="n">
+        <v>411</v>
+      </c>
       <c r="CT48" t="inlineStr"/>
       <c r="CU48" t="inlineStr"/>
-      <c r="CV48" t="inlineStr"/>
+      <c r="CV48" t="n">
+        <v>552</v>
+      </c>
       <c r="CW48" t="inlineStr"/>
       <c r="CX48" t="inlineStr"/>
-      <c r="CY48" t="inlineStr"/>
+      <c r="CY48" t="n">
+        <v>490</v>
+      </c>
       <c r="CZ48" t="inlineStr"/>
       <c r="DA48" t="inlineStr"/>
     </row>
@@ -15398,13 +15680,19 @@
       <c r="CR49" t="n">
         <v>1253</v>
       </c>
-      <c r="CS49" t="inlineStr"/>
+      <c r="CS49" t="n">
+        <v>222</v>
+      </c>
       <c r="CT49" t="inlineStr"/>
       <c r="CU49" t="inlineStr"/>
-      <c r="CV49" t="inlineStr"/>
+      <c r="CV49" t="n">
+        <v>411</v>
+      </c>
       <c r="CW49" t="inlineStr"/>
       <c r="CX49" t="inlineStr"/>
-      <c r="CY49" t="inlineStr"/>
+      <c r="CY49" t="n">
+        <v>193</v>
+      </c>
       <c r="CZ49" t="inlineStr"/>
       <c r="DA49" t="inlineStr"/>
     </row>
@@ -15699,13 +15987,19 @@
       <c r="CR50" t="n">
         <v>781</v>
       </c>
-      <c r="CS50" t="inlineStr"/>
+      <c r="CS50" t="n">
+        <v>210</v>
+      </c>
       <c r="CT50" t="inlineStr"/>
       <c r="CU50" t="inlineStr"/>
-      <c r="CV50" t="inlineStr"/>
+      <c r="CV50" t="n">
+        <v>244</v>
+      </c>
       <c r="CW50" t="inlineStr"/>
       <c r="CX50" t="inlineStr"/>
-      <c r="CY50" t="inlineStr"/>
+      <c r="CY50" t="n">
+        <v>121</v>
+      </c>
       <c r="CZ50" t="inlineStr"/>
       <c r="DA50" t="inlineStr"/>
     </row>
@@ -16000,13 +16294,19 @@
       <c r="CR51" t="n">
         <v>496</v>
       </c>
-      <c r="CS51" t="inlineStr"/>
+      <c r="CS51" t="n">
+        <v>158</v>
+      </c>
       <c r="CT51" t="inlineStr"/>
       <c r="CU51" t="inlineStr"/>
-      <c r="CV51" t="inlineStr"/>
+      <c r="CV51" t="n">
+        <v>125</v>
+      </c>
       <c r="CW51" t="inlineStr"/>
       <c r="CX51" t="inlineStr"/>
-      <c r="CY51" t="inlineStr"/>
+      <c r="CY51" t="n">
+        <v>252</v>
+      </c>
       <c r="CZ51" t="inlineStr"/>
       <c r="DA51" t="inlineStr"/>
     </row>
@@ -16301,13 +16601,19 @@
       <c r="CR52" t="n">
         <v>217</v>
       </c>
-      <c r="CS52" t="inlineStr"/>
+      <c r="CS52" t="n">
+        <v>83</v>
+      </c>
       <c r="CT52" t="inlineStr"/>
       <c r="CU52" t="inlineStr"/>
-      <c r="CV52" t="inlineStr"/>
+      <c r="CV52" t="n">
+        <v>51</v>
+      </c>
       <c r="CW52" t="inlineStr"/>
       <c r="CX52" t="inlineStr"/>
-      <c r="CY52" t="inlineStr"/>
+      <c r="CY52" t="n">
+        <v>29</v>
+      </c>
       <c r="CZ52" t="inlineStr"/>
       <c r="DA52" t="inlineStr"/>
     </row>
@@ -16602,13 +16908,19 @@
       <c r="CR53" t="n">
         <v>193</v>
       </c>
-      <c r="CS53" t="inlineStr"/>
+      <c r="CS53" t="n">
+        <v>54</v>
+      </c>
       <c r="CT53" t="inlineStr"/>
       <c r="CU53" t="inlineStr"/>
-      <c r="CV53" t="inlineStr"/>
+      <c r="CV53" t="n">
+        <v>56</v>
+      </c>
       <c r="CW53" t="inlineStr"/>
       <c r="CX53" t="inlineStr"/>
-      <c r="CY53" t="inlineStr"/>
+      <c r="CY53" t="n">
+        <v>56</v>
+      </c>
       <c r="CZ53" t="inlineStr"/>
       <c r="DA53" t="inlineStr"/>
     </row>
@@ -16903,13 +17215,19 @@
       <c r="CR54" t="n">
         <v>441</v>
       </c>
-      <c r="CS54" t="inlineStr"/>
+      <c r="CS54" t="n">
+        <v>143</v>
+      </c>
       <c r="CT54" t="inlineStr"/>
       <c r="CU54" t="inlineStr"/>
-      <c r="CV54" t="inlineStr"/>
+      <c r="CV54" t="n">
+        <v>191</v>
+      </c>
       <c r="CW54" t="inlineStr"/>
       <c r="CX54" t="inlineStr"/>
-      <c r="CY54" t="inlineStr"/>
+      <c r="CY54" t="n">
+        <v>73</v>
+      </c>
       <c r="CZ54" t="inlineStr"/>
       <c r="DA54" t="inlineStr"/>
     </row>
@@ -17204,13 +17522,19 @@
       <c r="CR55" t="n">
         <v>240</v>
       </c>
-      <c r="CS55" t="inlineStr"/>
+      <c r="CS55" t="n">
+        <v>83</v>
+      </c>
       <c r="CT55" t="inlineStr"/>
       <c r="CU55" t="inlineStr"/>
-      <c r="CV55" t="inlineStr"/>
+      <c r="CV55" t="n">
+        <v>111</v>
+      </c>
       <c r="CW55" t="inlineStr"/>
       <c r="CX55" t="inlineStr"/>
-      <c r="CY55" t="inlineStr"/>
+      <c r="CY55" t="n">
+        <v>76</v>
+      </c>
       <c r="CZ55" t="inlineStr"/>
       <c r="DA55" t="inlineStr"/>
     </row>
@@ -17505,13 +17829,19 @@
       <c r="CR56" t="n">
         <v>272</v>
       </c>
-      <c r="CS56" t="inlineStr"/>
+      <c r="CS56" t="n">
+        <v>74</v>
+      </c>
       <c r="CT56" t="inlineStr"/>
       <c r="CU56" t="inlineStr"/>
-      <c r="CV56" t="inlineStr"/>
+      <c r="CV56" t="n">
+        <v>77</v>
+      </c>
       <c r="CW56" t="inlineStr"/>
       <c r="CX56" t="inlineStr"/>
-      <c r="CY56" t="inlineStr"/>
+      <c r="CY56" t="n">
+        <v>47</v>
+      </c>
       <c r="CZ56" t="inlineStr"/>
       <c r="DA56" t="inlineStr"/>
     </row>
@@ -17806,13 +18136,19 @@
       <c r="CR57" t="n">
         <v>213</v>
       </c>
-      <c r="CS57" t="inlineStr"/>
+      <c r="CS57" t="n">
+        <v>63</v>
+      </c>
       <c r="CT57" t="inlineStr"/>
       <c r="CU57" t="inlineStr"/>
-      <c r="CV57" t="inlineStr"/>
+      <c r="CV57" t="n">
+        <v>52</v>
+      </c>
       <c r="CW57" t="inlineStr"/>
       <c r="CX57" t="inlineStr"/>
-      <c r="CY57" t="inlineStr"/>
+      <c r="CY57" t="n">
+        <v>39</v>
+      </c>
       <c r="CZ57" t="inlineStr"/>
       <c r="DA57" t="inlineStr"/>
     </row>
@@ -18107,13 +18443,19 @@
       <c r="CR58" t="n">
         <v>699</v>
       </c>
-      <c r="CS58" t="inlineStr"/>
+      <c r="CS58" t="n">
+        <v>230</v>
+      </c>
       <c r="CT58" t="inlineStr"/>
       <c r="CU58" t="inlineStr"/>
-      <c r="CV58" t="inlineStr"/>
+      <c r="CV58" t="n">
+        <v>162</v>
+      </c>
       <c r="CW58" t="inlineStr"/>
       <c r="CX58" t="inlineStr"/>
-      <c r="CY58" t="inlineStr"/>
+      <c r="CY58" t="n">
+        <v>69</v>
+      </c>
       <c r="CZ58" t="inlineStr"/>
       <c r="DA58" t="inlineStr"/>
     </row>
@@ -18408,13 +18750,19 @@
       <c r="CR59" t="n">
         <v>1660</v>
       </c>
-      <c r="CS59" t="inlineStr"/>
+      <c r="CS59" t="n">
+        <v>518</v>
+      </c>
       <c r="CT59" t="inlineStr"/>
       <c r="CU59" t="inlineStr"/>
-      <c r="CV59" t="inlineStr"/>
+      <c r="CV59" t="n">
+        <v>793</v>
+      </c>
       <c r="CW59" t="inlineStr"/>
       <c r="CX59" t="inlineStr"/>
-      <c r="CY59" t="inlineStr"/>
+      <c r="CY59" t="n">
+        <v>684</v>
+      </c>
       <c r="CZ59" t="inlineStr"/>
       <c r="DA59" t="inlineStr"/>
     </row>
@@ -18709,13 +19057,19 @@
       <c r="CR60" t="n">
         <v>495</v>
       </c>
-      <c r="CS60" t="inlineStr"/>
+      <c r="CS60" t="n">
+        <v>182</v>
+      </c>
       <c r="CT60" t="inlineStr"/>
       <c r="CU60" t="inlineStr"/>
-      <c r="CV60" t="inlineStr"/>
+      <c r="CV60" t="n">
+        <v>153</v>
+      </c>
       <c r="CW60" t="inlineStr"/>
       <c r="CX60" t="inlineStr"/>
-      <c r="CY60" t="inlineStr"/>
+      <c r="CY60" t="n">
+        <v>131</v>
+      </c>
       <c r="CZ60" t="inlineStr"/>
       <c r="DA60" t="inlineStr"/>
     </row>
@@ -19010,13 +19364,19 @@
       <c r="CR61" t="n">
         <v>283</v>
       </c>
-      <c r="CS61" t="inlineStr"/>
+      <c r="CS61" t="n">
+        <v>93</v>
+      </c>
       <c r="CT61" t="inlineStr"/>
       <c r="CU61" t="inlineStr"/>
-      <c r="CV61" t="inlineStr"/>
+      <c r="CV61" t="n">
+        <v>127</v>
+      </c>
       <c r="CW61" t="inlineStr"/>
       <c r="CX61" t="inlineStr"/>
-      <c r="CY61" t="inlineStr"/>
+      <c r="CY61" t="n">
+        <v>87</v>
+      </c>
       <c r="CZ61" t="inlineStr"/>
       <c r="DA61" t="inlineStr"/>
     </row>
@@ -19311,13 +19671,19 @@
       <c r="CR62" t="n">
         <v>3640</v>
       </c>
-      <c r="CS62" t="inlineStr"/>
+      <c r="CS62" t="n">
+        <v>795</v>
+      </c>
       <c r="CT62" t="inlineStr"/>
       <c r="CU62" t="inlineStr"/>
-      <c r="CV62" t="inlineStr"/>
+      <c r="CV62" t="n">
+        <v>2468</v>
+      </c>
       <c r="CW62" t="inlineStr"/>
       <c r="CX62" t="inlineStr"/>
-      <c r="CY62" t="inlineStr"/>
+      <c r="CY62" t="n">
+        <v>1594</v>
+      </c>
       <c r="CZ62" t="inlineStr"/>
       <c r="DA62" t="inlineStr"/>
     </row>
@@ -19612,13 +19978,19 @@
       <c r="CR63" t="n">
         <v>392</v>
       </c>
-      <c r="CS63" t="inlineStr"/>
+      <c r="CS63" t="n">
+        <v>143</v>
+      </c>
       <c r="CT63" t="inlineStr"/>
       <c r="CU63" t="inlineStr"/>
-      <c r="CV63" t="inlineStr"/>
+      <c r="CV63" t="n">
+        <v>131</v>
+      </c>
       <c r="CW63" t="inlineStr"/>
       <c r="CX63" t="inlineStr"/>
-      <c r="CY63" t="inlineStr"/>
+      <c r="CY63" t="n">
+        <v>53</v>
+      </c>
       <c r="CZ63" t="inlineStr"/>
       <c r="DA63" t="inlineStr"/>
     </row>
@@ -19913,13 +20285,19 @@
       <c r="CR64" t="n">
         <v>571</v>
       </c>
-      <c r="CS64" t="inlineStr"/>
+      <c r="CS64" t="n">
+        <v>171</v>
+      </c>
       <c r="CT64" t="inlineStr"/>
       <c r="CU64" t="inlineStr"/>
-      <c r="CV64" t="inlineStr"/>
+      <c r="CV64" t="n">
+        <v>213</v>
+      </c>
       <c r="CW64" t="inlineStr"/>
       <c r="CX64" t="inlineStr"/>
-      <c r="CY64" t="inlineStr"/>
+      <c r="CY64" t="n">
+        <v>143</v>
+      </c>
       <c r="CZ64" t="inlineStr"/>
       <c r="DA64" t="inlineStr"/>
     </row>
@@ -20214,13 +20592,19 @@
       <c r="CR65" t="n">
         <v>145</v>
       </c>
-      <c r="CS65" t="inlineStr"/>
+      <c r="CS65" t="n">
+        <v>28</v>
+      </c>
       <c r="CT65" t="inlineStr"/>
       <c r="CU65" t="inlineStr"/>
-      <c r="CV65" t="inlineStr"/>
+      <c r="CV65" t="n">
+        <v>43</v>
+      </c>
       <c r="CW65" t="inlineStr"/>
       <c r="CX65" t="inlineStr"/>
-      <c r="CY65" t="inlineStr"/>
+      <c r="CY65" t="n">
+        <v>29</v>
+      </c>
       <c r="CZ65" t="inlineStr"/>
       <c r="DA65" t="inlineStr"/>
     </row>
@@ -20515,13 +20899,19 @@
       <c r="CR66" t="n">
         <v>3447</v>
       </c>
-      <c r="CS66" t="inlineStr"/>
+      <c r="CS66" t="n">
+        <v>730</v>
+      </c>
       <c r="CT66" t="inlineStr"/>
       <c r="CU66" t="inlineStr"/>
-      <c r="CV66" t="inlineStr"/>
+      <c r="CV66" t="n">
+        <v>2499</v>
+      </c>
       <c r="CW66" t="inlineStr"/>
       <c r="CX66" t="inlineStr"/>
-      <c r="CY66" t="inlineStr"/>
+      <c r="CY66" t="n">
+        <v>1511</v>
+      </c>
       <c r="CZ66" t="inlineStr"/>
       <c r="DA66" t="inlineStr"/>
     </row>
@@ -20816,13 +21206,19 @@
       <c r="CR67" t="n">
         <v>2443</v>
       </c>
-      <c r="CS67" t="inlineStr"/>
+      <c r="CS67" t="n">
+        <v>549</v>
+      </c>
       <c r="CT67" t="inlineStr"/>
       <c r="CU67" t="inlineStr"/>
-      <c r="CV67" t="inlineStr"/>
+      <c r="CV67" t="n">
+        <v>629</v>
+      </c>
       <c r="CW67" t="inlineStr"/>
       <c r="CX67" t="inlineStr"/>
-      <c r="CY67" t="inlineStr"/>
+      <c r="CY67" t="n">
+        <v>531</v>
+      </c>
       <c r="CZ67" t="inlineStr"/>
       <c r="DA67" t="inlineStr"/>
     </row>
@@ -21117,13 +21513,19 @@
       <c r="CR68" t="n">
         <v>3557</v>
       </c>
-      <c r="CS68" t="inlineStr"/>
+      <c r="CS68" t="n">
+        <v>765</v>
+      </c>
       <c r="CT68" t="inlineStr"/>
       <c r="CU68" t="inlineStr"/>
-      <c r="CV68" t="inlineStr"/>
+      <c r="CV68" t="n">
+        <v>1453</v>
+      </c>
       <c r="CW68" t="inlineStr"/>
       <c r="CX68" t="inlineStr"/>
-      <c r="CY68" t="inlineStr"/>
+      <c r="CY68" t="n">
+        <v>905</v>
+      </c>
       <c r="CZ68" t="inlineStr"/>
       <c r="DA68" t="inlineStr"/>
     </row>
@@ -21418,13 +21820,19 @@
       <c r="CR69" t="n">
         <v>433</v>
       </c>
-      <c r="CS69" t="inlineStr"/>
+      <c r="CS69" t="n">
+        <v>123</v>
+      </c>
       <c r="CT69" t="inlineStr"/>
       <c r="CU69" t="inlineStr"/>
-      <c r="CV69" t="inlineStr"/>
+      <c r="CV69" t="n">
+        <v>154</v>
+      </c>
       <c r="CW69" t="inlineStr"/>
       <c r="CX69" t="inlineStr"/>
-      <c r="CY69" t="inlineStr"/>
+      <c r="CY69" t="n">
+        <v>84</v>
+      </c>
       <c r="CZ69" t="inlineStr"/>
       <c r="DA69" t="inlineStr"/>
     </row>
@@ -21719,13 +22127,19 @@
       <c r="CR70" t="n">
         <v>3161</v>
       </c>
-      <c r="CS70" t="inlineStr"/>
+      <c r="CS70" t="n">
+        <v>754</v>
+      </c>
       <c r="CT70" t="inlineStr"/>
       <c r="CU70" t="inlineStr"/>
-      <c r="CV70" t="inlineStr"/>
+      <c r="CV70" t="n">
+        <v>1919</v>
+      </c>
       <c r="CW70" t="inlineStr"/>
       <c r="CX70" t="inlineStr"/>
-      <c r="CY70" t="inlineStr"/>
+      <c r="CY70" t="n">
+        <v>1229</v>
+      </c>
       <c r="CZ70" t="inlineStr"/>
       <c r="DA70" t="inlineStr"/>
     </row>
@@ -22020,13 +22434,19 @@
       <c r="CR71" t="n">
         <v>1206</v>
       </c>
-      <c r="CS71" t="inlineStr"/>
+      <c r="CS71" t="n">
+        <v>367</v>
+      </c>
       <c r="CT71" t="inlineStr"/>
       <c r="CU71" t="inlineStr"/>
-      <c r="CV71" t="inlineStr"/>
+      <c r="CV71" t="n">
+        <v>394</v>
+      </c>
       <c r="CW71" t="inlineStr"/>
       <c r="CX71" t="inlineStr"/>
-      <c r="CY71" t="inlineStr"/>
+      <c r="CY71" t="n">
+        <v>236</v>
+      </c>
       <c r="CZ71" t="inlineStr"/>
       <c r="DA71" t="inlineStr"/>
     </row>
@@ -22321,13 +22741,19 @@
       <c r="CR72" t="n">
         <v>496</v>
       </c>
-      <c r="CS72" t="inlineStr"/>
+      <c r="CS72" t="n">
+        <v>114</v>
+      </c>
       <c r="CT72" t="inlineStr"/>
       <c r="CU72" t="inlineStr"/>
-      <c r="CV72" t="inlineStr"/>
+      <c r="CV72" t="n">
+        <v>133</v>
+      </c>
       <c r="CW72" t="inlineStr"/>
       <c r="CX72" t="inlineStr"/>
-      <c r="CY72" t="inlineStr"/>
+      <c r="CY72" t="n">
+        <v>140</v>
+      </c>
       <c r="CZ72" t="inlineStr"/>
       <c r="DA72" t="inlineStr"/>
     </row>
@@ -22622,13 +23048,19 @@
       <c r="CR73" t="n">
         <v>930</v>
       </c>
-      <c r="CS73" t="inlineStr"/>
+      <c r="CS73" t="n">
+        <v>279</v>
+      </c>
       <c r="CT73" t="inlineStr"/>
       <c r="CU73" t="inlineStr"/>
-      <c r="CV73" t="inlineStr"/>
+      <c r="CV73" t="n">
+        <v>235</v>
+      </c>
       <c r="CW73" t="inlineStr"/>
       <c r="CX73" t="inlineStr"/>
-      <c r="CY73" t="inlineStr"/>
+      <c r="CY73" t="n">
+        <v>99</v>
+      </c>
       <c r="CZ73" t="inlineStr"/>
       <c r="DA73" t="inlineStr"/>
     </row>
@@ -22923,13 +23355,19 @@
       <c r="CR74" t="n">
         <v>395</v>
       </c>
-      <c r="CS74" t="inlineStr"/>
+      <c r="CS74" t="n">
+        <v>115</v>
+      </c>
       <c r="CT74" t="inlineStr"/>
       <c r="CU74" t="inlineStr"/>
-      <c r="CV74" t="inlineStr"/>
+      <c r="CV74" t="n">
+        <v>127</v>
+      </c>
       <c r="CW74" t="inlineStr"/>
       <c r="CX74" t="inlineStr"/>
-      <c r="CY74" t="inlineStr"/>
+      <c r="CY74" t="n">
+        <v>71</v>
+      </c>
       <c r="CZ74" t="inlineStr"/>
       <c r="DA74" t="inlineStr"/>
     </row>
@@ -23224,13 +23662,19 @@
       <c r="CR75" t="n">
         <v>2678</v>
       </c>
-      <c r="CS75" t="inlineStr"/>
+      <c r="CS75" t="n">
+        <v>862</v>
+      </c>
       <c r="CT75" t="inlineStr"/>
       <c r="CU75" t="inlineStr"/>
-      <c r="CV75" t="inlineStr"/>
+      <c r="CV75" t="n">
+        <v>735</v>
+      </c>
       <c r="CW75" t="inlineStr"/>
       <c r="CX75" t="inlineStr"/>
-      <c r="CY75" t="inlineStr"/>
+      <c r="CY75" t="n">
+        <v>735</v>
+      </c>
       <c r="CZ75" t="inlineStr"/>
       <c r="DA75" t="inlineStr"/>
     </row>
@@ -23525,13 +23969,19 @@
       <c r="CR76" t="n">
         <v>578</v>
       </c>
-      <c r="CS76" t="inlineStr"/>
+      <c r="CS76" t="n">
+        <v>162</v>
+      </c>
       <c r="CT76" t="inlineStr"/>
       <c r="CU76" t="inlineStr"/>
-      <c r="CV76" t="inlineStr"/>
+      <c r="CV76" t="n">
+        <v>263</v>
+      </c>
       <c r="CW76" t="inlineStr"/>
       <c r="CX76" t="inlineStr"/>
-      <c r="CY76" t="inlineStr"/>
+      <c r="CY76" t="n">
+        <v>149</v>
+      </c>
       <c r="CZ76" t="inlineStr"/>
       <c r="DA76" t="inlineStr"/>
     </row>
@@ -23826,13 +24276,19 @@
       <c r="CR77" t="n">
         <v>4551</v>
       </c>
-      <c r="CS77" t="inlineStr"/>
+      <c r="CS77" t="n">
+        <v>1032</v>
+      </c>
       <c r="CT77" t="inlineStr"/>
       <c r="CU77" t="inlineStr"/>
-      <c r="CV77" t="inlineStr"/>
+      <c r="CV77" t="n">
+        <v>3107</v>
+      </c>
       <c r="CW77" t="inlineStr"/>
       <c r="CX77" t="inlineStr"/>
-      <c r="CY77" t="inlineStr"/>
+      <c r="CY77" t="n">
+        <v>1804</v>
+      </c>
       <c r="CZ77" t="inlineStr"/>
       <c r="DA77" t="inlineStr"/>
     </row>
@@ -24127,13 +24583,19 @@
       <c r="CR78" t="n">
         <v>7674</v>
       </c>
-      <c r="CS78" t="inlineStr"/>
+      <c r="CS78" t="n">
+        <v>2986</v>
+      </c>
       <c r="CT78" t="inlineStr"/>
       <c r="CU78" t="inlineStr"/>
-      <c r="CV78" t="inlineStr"/>
+      <c r="CV78" t="n">
+        <v>5875</v>
+      </c>
       <c r="CW78" t="inlineStr"/>
       <c r="CX78" t="inlineStr"/>
-      <c r="CY78" t="inlineStr"/>
+      <c r="CY78" t="n">
+        <v>3987</v>
+      </c>
       <c r="CZ78" t="inlineStr"/>
       <c r="DA78" t="inlineStr"/>
     </row>
@@ -24428,13 +24890,19 @@
       <c r="CR79" t="n">
         <v>1281</v>
       </c>
-      <c r="CS79" t="inlineStr"/>
+      <c r="CS79" t="n">
+        <v>975</v>
+      </c>
       <c r="CT79" t="inlineStr"/>
       <c r="CU79" t="inlineStr"/>
-      <c r="CV79" t="inlineStr"/>
+      <c r="CV79" t="n">
+        <v>444</v>
+      </c>
       <c r="CW79" t="inlineStr"/>
       <c r="CX79" t="inlineStr"/>
-      <c r="CY79" t="inlineStr"/>
+      <c r="CY79" t="n">
+        <v>209</v>
+      </c>
       <c r="CZ79" t="inlineStr"/>
       <c r="DA79" t="inlineStr"/>
     </row>
@@ -24729,13 +25197,19 @@
       <c r="CR80" t="n">
         <v>3385</v>
       </c>
-      <c r="CS80" t="inlineStr"/>
+      <c r="CS80" t="n">
+        <v>644</v>
+      </c>
       <c r="CT80" t="inlineStr"/>
       <c r="CU80" t="inlineStr"/>
-      <c r="CV80" t="inlineStr"/>
+      <c r="CV80" t="n">
+        <v>1120</v>
+      </c>
       <c r="CW80" t="inlineStr"/>
       <c r="CX80" t="inlineStr"/>
-      <c r="CY80" t="inlineStr"/>
+      <c r="CY80" t="n">
+        <v>805</v>
+      </c>
       <c r="CZ80" t="inlineStr"/>
       <c r="DA80" t="inlineStr"/>
     </row>
@@ -25030,13 +25504,19 @@
       <c r="CR81" t="n">
         <v>52</v>
       </c>
-      <c r="CS81" t="inlineStr"/>
+      <c r="CS81" t="n">
+        <v>36</v>
+      </c>
       <c r="CT81" t="inlineStr"/>
       <c r="CU81" t="inlineStr"/>
-      <c r="CV81" t="inlineStr"/>
+      <c r="CV81" t="n">
+        <v>16</v>
+      </c>
       <c r="CW81" t="inlineStr"/>
       <c r="CX81" t="inlineStr"/>
-      <c r="CY81" t="inlineStr"/>
+      <c r="CY81" t="n">
+        <v>23</v>
+      </c>
       <c r="CZ81" t="inlineStr"/>
       <c r="DA81" t="inlineStr"/>
     </row>
@@ -25331,13 +25811,19 @@
       <c r="CR82" t="n">
         <v>2085</v>
       </c>
-      <c r="CS82" t="inlineStr"/>
+      <c r="CS82" t="n">
+        <v>380</v>
+      </c>
       <c r="CT82" t="inlineStr"/>
       <c r="CU82" t="inlineStr"/>
-      <c r="CV82" t="inlineStr"/>
+      <c r="CV82" t="n">
+        <v>632</v>
+      </c>
       <c r="CW82" t="inlineStr"/>
       <c r="CX82" t="inlineStr"/>
-      <c r="CY82" t="inlineStr"/>
+      <c r="CY82" t="n">
+        <v>406</v>
+      </c>
       <c r="CZ82" t="inlineStr"/>
       <c r="DA82" t="inlineStr"/>
     </row>
@@ -25632,13 +26118,19 @@
       <c r="CR83" t="n">
         <v>31</v>
       </c>
-      <c r="CS83" t="inlineStr"/>
+      <c r="CS83" t="n">
+        <v>8</v>
+      </c>
       <c r="CT83" t="inlineStr"/>
       <c r="CU83" t="inlineStr"/>
-      <c r="CV83" t="inlineStr"/>
+      <c r="CV83" t="n">
+        <v>16</v>
+      </c>
       <c r="CW83" t="inlineStr"/>
       <c r="CX83" t="inlineStr"/>
-      <c r="CY83" t="inlineStr"/>
+      <c r="CY83" t="n">
+        <v>12</v>
+      </c>
       <c r="CZ83" t="inlineStr"/>
       <c r="DA83" t="inlineStr"/>
     </row>
@@ -25933,13 +26425,19 @@
       <c r="CR84" t="n">
         <v>609</v>
       </c>
-      <c r="CS84" t="inlineStr"/>
+      <c r="CS84" t="n">
+        <v>152</v>
+      </c>
       <c r="CT84" t="inlineStr"/>
       <c r="CU84" t="inlineStr"/>
-      <c r="CV84" t="inlineStr"/>
+      <c r="CV84" t="n">
+        <v>185</v>
+      </c>
       <c r="CW84" t="inlineStr"/>
       <c r="CX84" t="inlineStr"/>
-      <c r="CY84" t="inlineStr"/>
+      <c r="CY84" t="n">
+        <v>127</v>
+      </c>
       <c r="CZ84" t="inlineStr"/>
       <c r="DA84" t="inlineStr"/>
     </row>
@@ -26234,13 +26732,19 @@
       <c r="CR85" t="n">
         <v>1284</v>
       </c>
-      <c r="CS85" t="inlineStr"/>
+      <c r="CS85" t="n">
+        <v>342</v>
+      </c>
       <c r="CT85" t="inlineStr"/>
       <c r="CU85" t="inlineStr"/>
-      <c r="CV85" t="inlineStr"/>
+      <c r="CV85" t="n">
+        <v>1166</v>
+      </c>
       <c r="CW85" t="inlineStr"/>
       <c r="CX85" t="inlineStr"/>
-      <c r="CY85" t="inlineStr"/>
+      <c r="CY85" t="n">
+        <v>652</v>
+      </c>
       <c r="CZ85" t="inlineStr"/>
       <c r="DA85" t="inlineStr"/>
     </row>
@@ -26535,13 +27039,19 @@
       <c r="CR86" t="n">
         <v>1574</v>
       </c>
-      <c r="CS86" t="inlineStr"/>
+      <c r="CS86" t="n">
+        <v>661</v>
+      </c>
       <c r="CT86" t="inlineStr"/>
       <c r="CU86" t="inlineStr"/>
-      <c r="CV86" t="inlineStr"/>
+      <c r="CV86" t="n">
+        <v>1436</v>
+      </c>
       <c r="CW86" t="inlineStr"/>
       <c r="CX86" t="inlineStr"/>
-      <c r="CY86" t="inlineStr"/>
+      <c r="CY86" t="n">
+        <v>690</v>
+      </c>
       <c r="CZ86" t="inlineStr"/>
       <c r="DA86" t="inlineStr"/>
     </row>
@@ -26836,13 +27346,19 @@
       <c r="CR87" t="n">
         <v>737</v>
       </c>
-      <c r="CS87" t="inlineStr"/>
+      <c r="CS87" t="n">
+        <v>206</v>
+      </c>
       <c r="CT87" t="inlineStr"/>
       <c r="CU87" t="inlineStr"/>
-      <c r="CV87" t="inlineStr"/>
+      <c r="CV87" t="n">
+        <v>296</v>
+      </c>
       <c r="CW87" t="inlineStr"/>
       <c r="CX87" t="inlineStr"/>
-      <c r="CY87" t="inlineStr"/>
+      <c r="CY87" t="n">
+        <v>211</v>
+      </c>
       <c r="CZ87" t="inlineStr"/>
       <c r="DA87" t="inlineStr"/>
     </row>
@@ -27137,13 +27653,19 @@
       <c r="CR88" t="n">
         <v>1239</v>
       </c>
-      <c r="CS88" t="inlineStr"/>
+      <c r="CS88" t="n">
+        <v>380</v>
+      </c>
       <c r="CT88" t="inlineStr"/>
       <c r="CU88" t="inlineStr"/>
-      <c r="CV88" t="inlineStr"/>
+      <c r="CV88" t="n">
+        <v>407</v>
+      </c>
       <c r="CW88" t="inlineStr"/>
       <c r="CX88" t="inlineStr"/>
-      <c r="CY88" t="inlineStr"/>
+      <c r="CY88" t="n">
+        <v>261</v>
+      </c>
       <c r="CZ88" t="inlineStr"/>
       <c r="DA88" t="inlineStr"/>
     </row>
@@ -27438,13 +27960,19 @@
       <c r="CR89" t="n">
         <v>485</v>
       </c>
-      <c r="CS89" t="inlineStr"/>
+      <c r="CS89" t="n">
+        <v>190</v>
+      </c>
       <c r="CT89" t="inlineStr"/>
       <c r="CU89" t="inlineStr"/>
-      <c r="CV89" t="inlineStr"/>
+      <c r="CV89" t="n">
+        <v>190</v>
+      </c>
       <c r="CW89" t="inlineStr"/>
       <c r="CX89" t="inlineStr"/>
-      <c r="CY89" t="inlineStr"/>
+      <c r="CY89" t="n">
+        <v>126</v>
+      </c>
       <c r="CZ89" t="inlineStr"/>
       <c r="DA89" t="inlineStr"/>
     </row>
@@ -27739,13 +28267,19 @@
       <c r="CR90" t="n">
         <v>820</v>
       </c>
-      <c r="CS90" t="inlineStr"/>
+      <c r="CS90" t="n">
+        <v>203</v>
+      </c>
       <c r="CT90" t="inlineStr"/>
       <c r="CU90" t="inlineStr"/>
-      <c r="CV90" t="inlineStr"/>
+      <c r="CV90" t="n">
+        <v>286</v>
+      </c>
       <c r="CW90" t="inlineStr"/>
       <c r="CX90" t="inlineStr"/>
-      <c r="CY90" t="inlineStr"/>
+      <c r="CY90" t="n">
+        <v>171</v>
+      </c>
       <c r="CZ90" t="inlineStr"/>
       <c r="DA90" t="inlineStr"/>
     </row>
@@ -28040,13 +28574,19 @@
       <c r="CR91" t="n">
         <v>946</v>
       </c>
-      <c r="CS91" t="inlineStr"/>
+      <c r="CS91" t="n">
+        <v>333</v>
+      </c>
       <c r="CT91" t="inlineStr"/>
       <c r="CU91" t="inlineStr"/>
-      <c r="CV91" t="inlineStr"/>
+      <c r="CV91" t="n">
+        <v>240</v>
+      </c>
       <c r="CW91" t="inlineStr"/>
       <c r="CX91" t="inlineStr"/>
-      <c r="CY91" t="inlineStr"/>
+      <c r="CY91" t="n">
+        <v>129</v>
+      </c>
       <c r="CZ91" t="inlineStr"/>
       <c r="DA91" t="inlineStr"/>
     </row>
@@ -28341,13 +28881,19 @@
       <c r="CR92" t="n">
         <v>712</v>
       </c>
-      <c r="CS92" t="inlineStr"/>
+      <c r="CS92" t="n">
+        <v>115</v>
+      </c>
       <c r="CT92" t="inlineStr"/>
       <c r="CU92" t="inlineStr"/>
-      <c r="CV92" t="inlineStr"/>
+      <c r="CV92" t="n">
+        <v>223</v>
+      </c>
       <c r="CW92" t="inlineStr"/>
       <c r="CX92" t="inlineStr"/>
-      <c r="CY92" t="inlineStr"/>
+      <c r="CY92" t="n">
+        <v>163</v>
+      </c>
       <c r="CZ92" t="inlineStr"/>
       <c r="DA92" t="inlineStr"/>
     </row>
@@ -28642,13 +29188,19 @@
       <c r="CR93" t="n">
         <v>349</v>
       </c>
-      <c r="CS93" t="inlineStr"/>
+      <c r="CS93" t="n">
+        <v>112</v>
+      </c>
       <c r="CT93" t="inlineStr"/>
       <c r="CU93" t="inlineStr"/>
-      <c r="CV93" t="inlineStr"/>
+      <c r="CV93" t="n">
+        <v>133</v>
+      </c>
       <c r="CW93" t="inlineStr"/>
       <c r="CX93" t="inlineStr"/>
-      <c r="CY93" t="inlineStr"/>
+      <c r="CY93" t="n">
+        <v>83</v>
+      </c>
       <c r="CZ93" t="inlineStr"/>
       <c r="DA93" t="inlineStr"/>
     </row>
@@ -28943,13 +29495,19 @@
       <c r="CR94" t="n">
         <v>3256</v>
       </c>
-      <c r="CS94" t="inlineStr"/>
+      <c r="CS94" t="n">
+        <v>1057</v>
+      </c>
       <c r="CT94" t="inlineStr"/>
       <c r="CU94" t="inlineStr"/>
-      <c r="CV94" t="inlineStr"/>
+      <c r="CV94" t="n">
+        <v>1777</v>
+      </c>
       <c r="CW94" t="inlineStr"/>
       <c r="CX94" t="inlineStr"/>
-      <c r="CY94" t="inlineStr"/>
+      <c r="CY94" t="n">
+        <v>1146</v>
+      </c>
       <c r="CZ94" t="inlineStr"/>
       <c r="DA94" t="inlineStr"/>
     </row>
@@ -29244,13 +29802,19 @@
       <c r="CR95" t="n">
         <v>1230</v>
       </c>
-      <c r="CS95" t="inlineStr"/>
+      <c r="CS95" t="n">
+        <v>500</v>
+      </c>
       <c r="CT95" t="inlineStr"/>
       <c r="CU95" t="inlineStr"/>
-      <c r="CV95" t="inlineStr"/>
+      <c r="CV95" t="n">
+        <v>459</v>
+      </c>
       <c r="CW95" t="inlineStr"/>
       <c r="CX95" t="inlineStr"/>
-      <c r="CY95" t="inlineStr"/>
+      <c r="CY95" t="n">
+        <v>282</v>
+      </c>
       <c r="CZ95" t="inlineStr"/>
       <c r="DA95" t="inlineStr"/>
     </row>
@@ -29545,13 +30109,19 @@
       <c r="CR96" t="n">
         <v>1051</v>
       </c>
-      <c r="CS96" t="inlineStr"/>
+      <c r="CS96" t="n">
+        <v>251</v>
+      </c>
       <c r="CT96" t="inlineStr"/>
       <c r="CU96" t="inlineStr"/>
-      <c r="CV96" t="inlineStr"/>
+      <c r="CV96" t="n">
+        <v>357</v>
+      </c>
       <c r="CW96" t="inlineStr"/>
       <c r="CX96" t="inlineStr"/>
-      <c r="CY96" t="inlineStr"/>
+      <c r="CY96" t="n">
+        <v>249</v>
+      </c>
       <c r="CZ96" t="inlineStr"/>
       <c r="DA96" t="inlineStr"/>
     </row>
@@ -29844,13 +30414,19 @@
       <c r="CR97" t="n">
         <v>10724</v>
       </c>
-      <c r="CS97" t="inlineStr"/>
+      <c r="CS97" t="n">
+        <v>3103</v>
+      </c>
       <c r="CT97" t="inlineStr"/>
       <c r="CU97" t="inlineStr"/>
-      <c r="CV97" t="inlineStr"/>
+      <c r="CV97" t="n">
+        <v>8210</v>
+      </c>
       <c r="CW97" t="inlineStr"/>
       <c r="CX97" t="inlineStr"/>
-      <c r="CY97" t="inlineStr"/>
+      <c r="CY97" t="n">
+        <v>5664</v>
+      </c>
       <c r="CZ97" t="inlineStr"/>
       <c r="DA97" t="inlineStr"/>
     </row>
@@ -30145,13 +30721,19 @@
       <c r="CR98" t="n">
         <v>1738</v>
       </c>
-      <c r="CS98" t="inlineStr"/>
+      <c r="CS98" t="n">
+        <v>778</v>
+      </c>
       <c r="CT98" t="inlineStr"/>
       <c r="CU98" t="inlineStr"/>
-      <c r="CV98" t="inlineStr"/>
+      <c r="CV98" t="n">
+        <v>556</v>
+      </c>
       <c r="CW98" t="inlineStr"/>
       <c r="CX98" t="inlineStr"/>
-      <c r="CY98" t="inlineStr"/>
+      <c r="CY98" t="n">
+        <v>453</v>
+      </c>
       <c r="CZ98" t="inlineStr"/>
       <c r="DA98" t="inlineStr"/>
     </row>
@@ -30446,13 +31028,19 @@
       <c r="CR99" t="n">
         <v>3628</v>
       </c>
-      <c r="CS99" t="inlineStr"/>
+      <c r="CS99" t="n">
+        <v>901</v>
+      </c>
       <c r="CT99" t="inlineStr"/>
       <c r="CU99" t="inlineStr"/>
-      <c r="CV99" t="inlineStr"/>
+      <c r="CV99" t="n">
+        <v>1049</v>
+      </c>
       <c r="CW99" t="inlineStr"/>
       <c r="CX99" t="inlineStr"/>
-      <c r="CY99" t="inlineStr"/>
+      <c r="CY99" t="n">
+        <v>671</v>
+      </c>
       <c r="CZ99" t="inlineStr"/>
       <c r="DA99" t="inlineStr"/>
     </row>
@@ -30747,13 +31335,19 @@
       <c r="CR100" t="n">
         <v>203</v>
       </c>
-      <c r="CS100" t="inlineStr"/>
+      <c r="CS100" t="n">
+        <v>58</v>
+      </c>
       <c r="CT100" t="inlineStr"/>
       <c r="CU100" t="inlineStr"/>
-      <c r="CV100" t="inlineStr"/>
+      <c r="CV100" t="n">
+        <v>49</v>
+      </c>
       <c r="CW100" t="inlineStr"/>
       <c r="CX100" t="inlineStr"/>
-      <c r="CY100" t="inlineStr"/>
+      <c r="CY100" t="n">
+        <v>32</v>
+      </c>
       <c r="CZ100" t="inlineStr"/>
       <c r="DA100" t="inlineStr"/>
     </row>
@@ -31048,13 +31642,19 @@
       <c r="CR101" t="n">
         <v>33</v>
       </c>
-      <c r="CS101" t="inlineStr"/>
+      <c r="CS101" t="n">
+        <v>19</v>
+      </c>
       <c r="CT101" t="inlineStr"/>
       <c r="CU101" t="inlineStr"/>
-      <c r="CV101" t="inlineStr"/>
+      <c r="CV101" t="n">
+        <v>11</v>
+      </c>
       <c r="CW101" t="inlineStr"/>
       <c r="CX101" t="inlineStr"/>
-      <c r="CY101" t="inlineStr"/>
+      <c r="CY101" t="n">
+        <v>12</v>
+      </c>
       <c r="CZ101" t="inlineStr"/>
       <c r="DA101" t="inlineStr"/>
     </row>
@@ -31349,13 +31949,19 @@
       <c r="CR102" t="n">
         <v>1143</v>
       </c>
-      <c r="CS102" t="inlineStr"/>
+      <c r="CS102" t="n">
+        <v>336</v>
+      </c>
       <c r="CT102" t="inlineStr"/>
       <c r="CU102" t="inlineStr"/>
-      <c r="CV102" t="inlineStr"/>
+      <c r="CV102" t="n">
+        <v>495</v>
+      </c>
       <c r="CW102" t="inlineStr"/>
       <c r="CX102" t="inlineStr"/>
-      <c r="CY102" t="inlineStr"/>
+      <c r="CY102" t="n">
+        <v>176</v>
+      </c>
       <c r="CZ102" t="inlineStr"/>
       <c r="DA102" t="inlineStr"/>
     </row>
@@ -31650,13 +32256,19 @@
       <c r="CR103" t="n">
         <v>4311</v>
       </c>
-      <c r="CS103" t="inlineStr"/>
+      <c r="CS103" t="n">
+        <v>1001</v>
+      </c>
       <c r="CT103" t="inlineStr"/>
       <c r="CU103" t="inlineStr"/>
-      <c r="CV103" t="inlineStr"/>
+      <c r="CV103" t="n">
+        <v>1143</v>
+      </c>
       <c r="CW103" t="inlineStr"/>
       <c r="CX103" t="inlineStr"/>
-      <c r="CY103" t="inlineStr"/>
+      <c r="CY103" t="n">
+        <v>843</v>
+      </c>
       <c r="CZ103" t="inlineStr"/>
       <c r="DA103" t="inlineStr"/>
     </row>
@@ -31951,13 +32563,19 @@
       <c r="CR104" t="n">
         <v>316</v>
       </c>
-      <c r="CS104" t="inlineStr"/>
+      <c r="CS104" t="n">
+        <v>87</v>
+      </c>
       <c r="CT104" t="inlineStr"/>
       <c r="CU104" t="inlineStr"/>
-      <c r="CV104" t="inlineStr"/>
+      <c r="CV104" t="n">
+        <v>105</v>
+      </c>
       <c r="CW104" t="inlineStr"/>
       <c r="CX104" t="inlineStr"/>
-      <c r="CY104" t="inlineStr"/>
+      <c r="CY104" t="n">
+        <v>63</v>
+      </c>
       <c r="CZ104" t="inlineStr"/>
       <c r="DA104" t="inlineStr"/>
     </row>
@@ -32252,13 +32870,19 @@
       <c r="CR105" t="n">
         <v>210</v>
       </c>
-      <c r="CS105" t="inlineStr"/>
+      <c r="CS105" t="n">
+        <v>57</v>
+      </c>
       <c r="CT105" t="inlineStr"/>
       <c r="CU105" t="inlineStr"/>
-      <c r="CV105" t="inlineStr"/>
+      <c r="CV105" t="n">
+        <v>112</v>
+      </c>
       <c r="CW105" t="inlineStr"/>
       <c r="CX105" t="inlineStr"/>
-      <c r="CY105" t="inlineStr"/>
+      <c r="CY105" t="n">
+        <v>72</v>
+      </c>
       <c r="CZ105" t="inlineStr"/>
       <c r="DA105" t="inlineStr"/>
     </row>
@@ -32553,13 +33177,19 @@
       <c r="CR106" t="n">
         <v>588</v>
       </c>
-      <c r="CS106" t="inlineStr"/>
+      <c r="CS106" t="n">
+        <v>183</v>
+      </c>
       <c r="CT106" t="inlineStr"/>
       <c r="CU106" t="inlineStr"/>
-      <c r="CV106" t="inlineStr"/>
+      <c r="CV106" t="n">
+        <v>133</v>
+      </c>
       <c r="CW106" t="inlineStr"/>
       <c r="CX106" t="inlineStr"/>
-      <c r="CY106" t="inlineStr"/>
+      <c r="CY106" t="n">
+        <v>93</v>
+      </c>
       <c r="CZ106" t="inlineStr"/>
       <c r="DA106" t="inlineStr"/>
     </row>
@@ -32854,13 +33484,19 @@
       <c r="CR107" t="n">
         <v>4189</v>
       </c>
-      <c r="CS107" t="inlineStr"/>
+      <c r="CS107" t="n">
+        <v>467</v>
+      </c>
       <c r="CT107" t="inlineStr"/>
       <c r="CU107" t="inlineStr"/>
-      <c r="CV107" t="inlineStr"/>
+      <c r="CV107" t="n">
+        <v>947</v>
+      </c>
       <c r="CW107" t="inlineStr"/>
       <c r="CX107" t="inlineStr"/>
-      <c r="CY107" t="inlineStr"/>
+      <c r="CY107" t="n">
+        <v>690</v>
+      </c>
       <c r="CZ107" t="inlineStr"/>
       <c r="DA107" t="inlineStr"/>
     </row>
@@ -33155,13 +33791,19 @@
       <c r="CR108" t="n">
         <v>829</v>
       </c>
-      <c r="CS108" t="inlineStr"/>
+      <c r="CS108" t="n">
+        <v>296</v>
+      </c>
       <c r="CT108" t="inlineStr"/>
       <c r="CU108" t="inlineStr"/>
-      <c r="CV108" t="inlineStr"/>
+      <c r="CV108" t="n">
+        <v>222</v>
+      </c>
       <c r="CW108" t="inlineStr"/>
       <c r="CX108" t="inlineStr"/>
-      <c r="CY108" t="inlineStr"/>
+      <c r="CY108" t="n">
+        <v>159</v>
+      </c>
       <c r="CZ108" t="inlineStr"/>
       <c r="DA108" t="inlineStr"/>
     </row>
@@ -33456,13 +34098,19 @@
       <c r="CR109" t="n">
         <v>3604</v>
       </c>
-      <c r="CS109" t="inlineStr"/>
+      <c r="CS109" t="n">
+        <v>653</v>
+      </c>
       <c r="CT109" t="inlineStr"/>
       <c r="CU109" t="inlineStr"/>
-      <c r="CV109" t="inlineStr"/>
+      <c r="CV109" t="n">
+        <v>959</v>
+      </c>
       <c r="CW109" t="inlineStr"/>
       <c r="CX109" t="inlineStr"/>
-      <c r="CY109" t="inlineStr"/>
+      <c r="CY109" t="n">
+        <v>678</v>
+      </c>
       <c r="CZ109" t="inlineStr"/>
       <c r="DA109" t="inlineStr"/>
     </row>
@@ -33757,13 +34405,19 @@
       <c r="CR110" t="n">
         <v>2144</v>
       </c>
-      <c r="CS110" t="inlineStr"/>
+      <c r="CS110" t="n">
+        <v>341</v>
+      </c>
       <c r="CT110" t="inlineStr"/>
       <c r="CU110" t="inlineStr"/>
-      <c r="CV110" t="inlineStr"/>
+      <c r="CV110" t="n">
+        <v>481</v>
+      </c>
       <c r="CW110" t="inlineStr"/>
       <c r="CX110" t="inlineStr"/>
-      <c r="CY110" t="inlineStr"/>
+      <c r="CY110" t="n">
+        <v>330</v>
+      </c>
       <c r="CZ110" t="inlineStr"/>
       <c r="DA110" t="inlineStr"/>
     </row>
@@ -34058,13 +34712,19 @@
       <c r="CR111" t="n">
         <v>135</v>
       </c>
-      <c r="CS111" t="inlineStr"/>
+      <c r="CS111" t="n">
+        <v>84</v>
+      </c>
       <c r="CT111" t="inlineStr"/>
       <c r="CU111" t="inlineStr"/>
-      <c r="CV111" t="inlineStr"/>
+      <c r="CV111" t="n">
+        <v>27</v>
+      </c>
       <c r="CW111" t="inlineStr"/>
       <c r="CX111" t="inlineStr"/>
-      <c r="CY111" t="inlineStr"/>
+      <c r="CY111" t="n">
+        <v>39</v>
+      </c>
       <c r="CZ111" t="inlineStr"/>
       <c r="DA111" t="inlineStr"/>
     </row>
@@ -34359,13 +35019,19 @@
       <c r="CR112" t="n">
         <v>2380</v>
       </c>
-      <c r="CS112" t="inlineStr"/>
+      <c r="CS112" t="n">
+        <v>817</v>
+      </c>
       <c r="CT112" t="inlineStr"/>
       <c r="CU112" t="inlineStr"/>
-      <c r="CV112" t="inlineStr"/>
+      <c r="CV112" t="n">
+        <v>2089</v>
+      </c>
       <c r="CW112" t="inlineStr"/>
       <c r="CX112" t="inlineStr"/>
-      <c r="CY112" t="inlineStr"/>
+      <c r="CY112" t="n">
+        <v>1425</v>
+      </c>
       <c r="CZ112" t="inlineStr"/>
       <c r="DA112" t="inlineStr"/>
     </row>
@@ -34660,13 +35326,19 @@
       <c r="CR113" t="n">
         <v>2616</v>
       </c>
-      <c r="CS113" t="inlineStr"/>
+      <c r="CS113" t="n">
+        <v>522</v>
+      </c>
       <c r="CT113" t="inlineStr"/>
       <c r="CU113" t="inlineStr"/>
-      <c r="CV113" t="inlineStr"/>
+      <c r="CV113" t="n">
+        <v>1737</v>
+      </c>
       <c r="CW113" t="inlineStr"/>
       <c r="CX113" t="inlineStr"/>
-      <c r="CY113" t="inlineStr"/>
+      <c r="CY113" t="n">
+        <v>983</v>
+      </c>
       <c r="CZ113" t="inlineStr"/>
       <c r="DA113" t="inlineStr"/>
     </row>
@@ -34961,13 +35633,19 @@
       <c r="CR114" t="n">
         <v>1068</v>
       </c>
-      <c r="CS114" t="inlineStr"/>
+      <c r="CS114" t="n">
+        <v>389</v>
+      </c>
       <c r="CT114" t="inlineStr"/>
       <c r="CU114" t="inlineStr"/>
-      <c r="CV114" t="inlineStr"/>
+      <c r="CV114" t="n">
+        <v>328</v>
+      </c>
       <c r="CW114" t="inlineStr"/>
       <c r="CX114" t="inlineStr"/>
-      <c r="CY114" t="inlineStr"/>
+      <c r="CY114" t="n">
+        <v>218</v>
+      </c>
       <c r="CZ114" t="inlineStr"/>
       <c r="DA114" t="inlineStr"/>
     </row>
@@ -35262,13 +35940,19 @@
       <c r="CR115" t="n">
         <v>1141</v>
       </c>
-      <c r="CS115" t="inlineStr"/>
+      <c r="CS115" t="n">
+        <v>342</v>
+      </c>
       <c r="CT115" t="inlineStr"/>
       <c r="CU115" t="inlineStr"/>
-      <c r="CV115" t="inlineStr"/>
+      <c r="CV115" t="n">
+        <v>341</v>
+      </c>
       <c r="CW115" t="inlineStr"/>
       <c r="CX115" t="inlineStr"/>
-      <c r="CY115" t="inlineStr"/>
+      <c r="CY115" t="n">
+        <v>266</v>
+      </c>
       <c r="CZ115" t="inlineStr"/>
       <c r="DA115" t="inlineStr"/>
     </row>
@@ -35561,13 +36245,19 @@
       <c r="CR116" t="n">
         <v>576</v>
       </c>
-      <c r="CS116" t="inlineStr"/>
+      <c r="CS116" t="n">
+        <v>242</v>
+      </c>
       <c r="CT116" t="inlineStr"/>
       <c r="CU116" t="inlineStr"/>
-      <c r="CV116" t="inlineStr"/>
+      <c r="CV116" t="n">
+        <v>198</v>
+      </c>
       <c r="CW116" t="inlineStr"/>
       <c r="CX116" t="inlineStr"/>
-      <c r="CY116" t="inlineStr"/>
+      <c r="CY116" t="n">
+        <v>141</v>
+      </c>
       <c r="CZ116" t="inlineStr"/>
       <c r="DA116" t="inlineStr"/>
     </row>
@@ -35862,13 +36552,19 @@
       <c r="CR117" t="n">
         <v>727</v>
       </c>
-      <c r="CS117" t="inlineStr"/>
+      <c r="CS117" t="n">
+        <v>162</v>
+      </c>
       <c r="CT117" t="inlineStr"/>
       <c r="CU117" t="inlineStr"/>
-      <c r="CV117" t="inlineStr"/>
+      <c r="CV117" t="n">
+        <v>230</v>
+      </c>
       <c r="CW117" t="inlineStr"/>
       <c r="CX117" t="inlineStr"/>
-      <c r="CY117" t="inlineStr"/>
+      <c r="CY117" t="n">
+        <v>176</v>
+      </c>
       <c r="CZ117" t="inlineStr"/>
       <c r="DA117" t="inlineStr"/>
     </row>
@@ -36163,13 +36859,19 @@
       <c r="CR118" t="n">
         <v>1267</v>
       </c>
-      <c r="CS118" t="inlineStr"/>
+      <c r="CS118" t="n">
+        <v>337</v>
+      </c>
       <c r="CT118" t="inlineStr"/>
       <c r="CU118" t="inlineStr"/>
-      <c r="CV118" t="inlineStr"/>
+      <c r="CV118" t="n">
+        <v>345</v>
+      </c>
       <c r="CW118" t="inlineStr"/>
       <c r="CX118" t="inlineStr"/>
-      <c r="CY118" t="inlineStr"/>
+      <c r="CY118" t="n">
+        <v>192</v>
+      </c>
       <c r="CZ118" t="inlineStr"/>
       <c r="DA118" t="inlineStr"/>
     </row>
@@ -36462,13 +37164,19 @@
       <c r="CR119" t="n">
         <v>285</v>
       </c>
-      <c r="CS119" t="inlineStr"/>
+      <c r="CS119" t="n">
+        <v>133</v>
+      </c>
       <c r="CT119" t="inlineStr"/>
       <c r="CU119" t="inlineStr"/>
-      <c r="CV119" t="inlineStr"/>
+      <c r="CV119" t="n">
+        <v>107</v>
+      </c>
       <c r="CW119" t="inlineStr"/>
       <c r="CX119" t="inlineStr"/>
-      <c r="CY119" t="inlineStr"/>
+      <c r="CY119" t="n">
+        <v>70</v>
+      </c>
       <c r="CZ119" t="inlineStr"/>
       <c r="DA119" t="inlineStr"/>
     </row>
@@ -36763,13 +37471,19 @@
       <c r="CR120" t="n">
         <v>709</v>
       </c>
-      <c r="CS120" t="inlineStr"/>
+      <c r="CS120" t="n">
+        <v>15</v>
+      </c>
       <c r="CT120" t="inlineStr"/>
       <c r="CU120" t="inlineStr"/>
-      <c r="CV120" t="inlineStr"/>
+      <c r="CV120" t="n">
+        <v>23</v>
+      </c>
       <c r="CW120" t="inlineStr"/>
       <c r="CX120" t="inlineStr"/>
-      <c r="CY120" t="inlineStr"/>
+      <c r="CY120" t="n">
+        <v>21</v>
+      </c>
       <c r="CZ120" t="inlineStr"/>
       <c r="DA120" t="inlineStr"/>
     </row>
@@ -37064,13 +37778,19 @@
       <c r="CR121" t="n">
         <v>32</v>
       </c>
-      <c r="CS121" t="inlineStr"/>
+      <c r="CS121" t="n">
+        <v>13</v>
+      </c>
       <c r="CT121" t="inlineStr"/>
       <c r="CU121" t="inlineStr"/>
-      <c r="CV121" t="inlineStr"/>
+      <c r="CV121" t="n">
+        <v>6</v>
+      </c>
       <c r="CW121" t="inlineStr"/>
       <c r="CX121" t="inlineStr"/>
-      <c r="CY121" t="inlineStr"/>
+      <c r="CY121" t="n">
+        <v>8</v>
+      </c>
       <c r="CZ121" t="inlineStr"/>
       <c r="DA121" t="inlineStr"/>
     </row>
@@ -37365,13 +38085,19 @@
       <c r="CR122" t="n">
         <v>322</v>
       </c>
-      <c r="CS122" t="inlineStr"/>
+      <c r="CS122" t="n">
+        <v>82</v>
+      </c>
       <c r="CT122" t="inlineStr"/>
       <c r="CU122" t="inlineStr"/>
-      <c r="CV122" t="inlineStr"/>
+      <c r="CV122" t="n">
+        <v>148</v>
+      </c>
       <c r="CW122" t="inlineStr"/>
       <c r="CX122" t="inlineStr"/>
-      <c r="CY122" t="inlineStr"/>
+      <c r="CY122" t="n">
+        <v>145</v>
+      </c>
       <c r="CZ122" t="inlineStr"/>
       <c r="DA122" t="inlineStr"/>
     </row>
@@ -37666,13 +38392,19 @@
       <c r="CR123" t="n">
         <v>1107</v>
       </c>
-      <c r="CS123" t="inlineStr"/>
+      <c r="CS123" t="n">
+        <v>296</v>
+      </c>
       <c r="CT123" t="inlineStr"/>
       <c r="CU123" t="inlineStr"/>
-      <c r="CV123" t="inlineStr"/>
+      <c r="CV123" t="n">
+        <v>356</v>
+      </c>
       <c r="CW123" t="inlineStr"/>
       <c r="CX123" t="inlineStr"/>
-      <c r="CY123" t="inlineStr"/>
+      <c r="CY123" t="n">
+        <v>214</v>
+      </c>
       <c r="CZ123" t="inlineStr"/>
       <c r="DA123" t="inlineStr"/>
     </row>
@@ -37965,13 +38697,19 @@
       <c r="CR124" t="n">
         <v>57</v>
       </c>
-      <c r="CS124" t="inlineStr"/>
+      <c r="CS124" t="n">
+        <v>22</v>
+      </c>
       <c r="CT124" t="inlineStr"/>
       <c r="CU124" t="inlineStr"/>
-      <c r="CV124" t="inlineStr"/>
+      <c r="CV124" t="n">
+        <v>18</v>
+      </c>
       <c r="CW124" t="inlineStr"/>
       <c r="CX124" t="inlineStr"/>
-      <c r="CY124" t="inlineStr"/>
+      <c r="CY124" t="n">
+        <v>12</v>
+      </c>
       <c r="CZ124" t="inlineStr"/>
       <c r="DA124" t="inlineStr"/>
     </row>
@@ -38266,13 +39004,19 @@
       <c r="CR125" t="n">
         <v>424</v>
       </c>
-      <c r="CS125" t="inlineStr"/>
+      <c r="CS125" t="n">
+        <v>198</v>
+      </c>
       <c r="CT125" t="inlineStr"/>
       <c r="CU125" t="inlineStr"/>
-      <c r="CV125" t="inlineStr"/>
+      <c r="CV125" t="n">
+        <v>116</v>
+      </c>
       <c r="CW125" t="inlineStr"/>
       <c r="CX125" t="inlineStr"/>
-      <c r="CY125" t="inlineStr"/>
+      <c r="CY125" t="n">
+        <v>109</v>
+      </c>
       <c r="CZ125" t="inlineStr"/>
       <c r="DA125" t="inlineStr"/>
     </row>
@@ -38567,13 +39311,19 @@
       <c r="CR126" t="n">
         <v>950</v>
       </c>
-      <c r="CS126" t="inlineStr"/>
+      <c r="CS126" t="n">
+        <v>279</v>
+      </c>
       <c r="CT126" t="inlineStr"/>
       <c r="CU126" t="inlineStr"/>
-      <c r="CV126" t="inlineStr"/>
+      <c r="CV126" t="n">
+        <v>229</v>
+      </c>
       <c r="CW126" t="inlineStr"/>
       <c r="CX126" t="inlineStr"/>
-      <c r="CY126" t="inlineStr"/>
+      <c r="CY126" t="n">
+        <v>126</v>
+      </c>
       <c r="CZ126" t="inlineStr"/>
       <c r="DA126" t="inlineStr"/>
     </row>
@@ -38868,13 +39618,19 @@
       <c r="CR127" t="n">
         <v>250</v>
       </c>
-      <c r="CS127" t="inlineStr"/>
+      <c r="CS127" t="n">
+        <v>53</v>
+      </c>
       <c r="CT127" t="inlineStr"/>
       <c r="CU127" t="inlineStr"/>
-      <c r="CV127" t="inlineStr"/>
+      <c r="CV127" t="n">
+        <v>82</v>
+      </c>
       <c r="CW127" t="inlineStr"/>
       <c r="CX127" t="inlineStr"/>
-      <c r="CY127" t="inlineStr"/>
+      <c r="CY127" t="n">
+        <v>53</v>
+      </c>
       <c r="CZ127" t="inlineStr"/>
       <c r="DA127" t="inlineStr"/>
     </row>
@@ -39169,13 +39925,19 @@
       <c r="CR128" t="n">
         <v>933</v>
       </c>
-      <c r="CS128" t="inlineStr"/>
+      <c r="CS128" t="n">
+        <v>189</v>
+      </c>
       <c r="CT128" t="inlineStr"/>
       <c r="CU128" t="inlineStr"/>
-      <c r="CV128" t="inlineStr"/>
+      <c r="CV128" t="n">
+        <v>485</v>
+      </c>
       <c r="CW128" t="inlineStr"/>
       <c r="CX128" t="inlineStr"/>
-      <c r="CY128" t="inlineStr"/>
+      <c r="CY128" t="n">
+        <v>175</v>
+      </c>
       <c r="CZ128" t="inlineStr"/>
       <c r="DA128" t="inlineStr"/>
     </row>
@@ -39470,13 +40232,19 @@
       <c r="CR129" t="n">
         <v>654</v>
       </c>
-      <c r="CS129" t="inlineStr"/>
+      <c r="CS129" t="n">
+        <v>143</v>
+      </c>
       <c r="CT129" t="inlineStr"/>
       <c r="CU129" t="inlineStr"/>
-      <c r="CV129" t="inlineStr"/>
+      <c r="CV129" t="n">
+        <v>198</v>
+      </c>
       <c r="CW129" t="inlineStr"/>
       <c r="CX129" t="inlineStr"/>
-      <c r="CY129" t="inlineStr"/>
+      <c r="CY129" t="n">
+        <v>114</v>
+      </c>
       <c r="CZ129" t="inlineStr"/>
       <c r="DA129" t="inlineStr"/>
     </row>
@@ -39771,13 +40539,19 @@
       <c r="CR130" t="n">
         <v>378</v>
       </c>
-      <c r="CS130" t="inlineStr"/>
+      <c r="CS130" t="n">
+        <v>139</v>
+      </c>
       <c r="CT130" t="inlineStr"/>
       <c r="CU130" t="inlineStr"/>
-      <c r="CV130" t="inlineStr"/>
+      <c r="CV130" t="n">
+        <v>128</v>
+      </c>
       <c r="CW130" t="inlineStr"/>
       <c r="CX130" t="inlineStr"/>
-      <c r="CY130" t="inlineStr"/>
+      <c r="CY130" t="n">
+        <v>94</v>
+      </c>
       <c r="CZ130" t="inlineStr"/>
       <c r="DA130" t="inlineStr"/>
     </row>
@@ -40072,13 +40846,19 @@
       <c r="CR131" t="n">
         <v>341</v>
       </c>
-      <c r="CS131" t="inlineStr"/>
+      <c r="CS131" t="n">
+        <v>108</v>
+      </c>
       <c r="CT131" t="inlineStr"/>
       <c r="CU131" t="inlineStr"/>
-      <c r="CV131" t="inlineStr"/>
+      <c r="CV131" t="n">
+        <v>141</v>
+      </c>
       <c r="CW131" t="inlineStr"/>
       <c r="CX131" t="inlineStr"/>
-      <c r="CY131" t="inlineStr"/>
+      <c r="CY131" t="n">
+        <v>108</v>
+      </c>
       <c r="CZ131" t="inlineStr"/>
       <c r="DA131" t="inlineStr"/>
     </row>
@@ -40373,13 +41153,19 @@
       <c r="CR132" t="n">
         <v>3120</v>
       </c>
-      <c r="CS132" t="inlineStr"/>
+      <c r="CS132" t="n">
+        <v>697</v>
+      </c>
       <c r="CT132" t="inlineStr"/>
       <c r="CU132" t="inlineStr"/>
-      <c r="CV132" t="inlineStr"/>
+      <c r="CV132" t="n">
+        <v>891</v>
+      </c>
       <c r="CW132" t="inlineStr"/>
       <c r="CX132" t="inlineStr"/>
-      <c r="CY132" t="inlineStr"/>
+      <c r="CY132" t="n">
+        <v>464</v>
+      </c>
       <c r="CZ132" t="inlineStr"/>
       <c r="DA132" t="inlineStr"/>
     </row>
@@ -40674,13 +41460,19 @@
       <c r="CR133" t="n">
         <v>1578</v>
       </c>
-      <c r="CS133" t="inlineStr"/>
+      <c r="CS133" t="n">
+        <v>312</v>
+      </c>
       <c r="CT133" t="inlineStr"/>
       <c r="CU133" t="inlineStr"/>
-      <c r="CV133" t="inlineStr"/>
+      <c r="CV133" t="n">
+        <v>626</v>
+      </c>
       <c r="CW133" t="inlineStr"/>
       <c r="CX133" t="inlineStr"/>
-      <c r="CY133" t="inlineStr"/>
+      <c r="CY133" t="n">
+        <v>218</v>
+      </c>
       <c r="CZ133" t="inlineStr"/>
       <c r="DA133" t="inlineStr"/>
     </row>
@@ -40975,13 +41767,19 @@
       <c r="CR134" t="n">
         <v>2036</v>
       </c>
-      <c r="CS134" t="inlineStr"/>
+      <c r="CS134" t="n">
+        <v>478</v>
+      </c>
       <c r="CT134" t="inlineStr"/>
       <c r="CU134" t="inlineStr"/>
-      <c r="CV134" t="inlineStr"/>
+      <c r="CV134" t="n">
+        <v>1150</v>
+      </c>
       <c r="CW134" t="inlineStr"/>
       <c r="CX134" t="inlineStr"/>
-      <c r="CY134" t="inlineStr"/>
+      <c r="CY134" t="n">
+        <v>723</v>
+      </c>
       <c r="CZ134" t="inlineStr"/>
       <c r="DA134" t="inlineStr"/>
     </row>
@@ -41276,13 +42074,19 @@
       <c r="CR135" t="n">
         <v>2446</v>
       </c>
-      <c r="CS135" t="inlineStr"/>
+      <c r="CS135" t="n">
+        <v>704</v>
+      </c>
       <c r="CT135" t="inlineStr"/>
       <c r="CU135" t="inlineStr"/>
-      <c r="CV135" t="inlineStr"/>
+      <c r="CV135" t="n">
+        <v>1464</v>
+      </c>
       <c r="CW135" t="inlineStr"/>
       <c r="CX135" t="inlineStr"/>
-      <c r="CY135" t="inlineStr"/>
+      <c r="CY135" t="n">
+        <v>1020</v>
+      </c>
       <c r="CZ135" t="inlineStr"/>
       <c r="DA135" t="inlineStr"/>
     </row>
@@ -41577,13 +42381,19 @@
       <c r="CR136" t="n">
         <v>534</v>
       </c>
-      <c r="CS136" t="inlineStr"/>
+      <c r="CS136" t="n">
+        <v>150</v>
+      </c>
       <c r="CT136" t="inlineStr"/>
       <c r="CU136" t="inlineStr"/>
-      <c r="CV136" t="inlineStr"/>
+      <c r="CV136" t="n">
+        <v>129</v>
+      </c>
       <c r="CW136" t="inlineStr"/>
       <c r="CX136" t="inlineStr"/>
-      <c r="CY136" t="inlineStr"/>
+      <c r="CY136" t="n">
+        <v>110</v>
+      </c>
       <c r="CZ136" t="inlineStr"/>
       <c r="DA136" t="inlineStr"/>
     </row>
@@ -41878,13 +42688,19 @@
       <c r="CR137" t="n">
         <v>1737</v>
       </c>
-      <c r="CS137" t="inlineStr"/>
+      <c r="CS137" t="n">
+        <v>498</v>
+      </c>
       <c r="CT137" t="inlineStr"/>
       <c r="CU137" t="inlineStr"/>
-      <c r="CV137" t="inlineStr"/>
+      <c r="CV137" t="n">
+        <v>683</v>
+      </c>
       <c r="CW137" t="inlineStr"/>
       <c r="CX137" t="inlineStr"/>
-      <c r="CY137" t="inlineStr"/>
+      <c r="CY137" t="n">
+        <v>326</v>
+      </c>
       <c r="CZ137" t="inlineStr"/>
       <c r="DA137" t="inlineStr"/>
     </row>
@@ -42179,13 +42995,19 @@
       <c r="CR138" t="n">
         <v>227</v>
       </c>
-      <c r="CS138" t="inlineStr"/>
+      <c r="CS138" t="n">
+        <v>43</v>
+      </c>
       <c r="CT138" t="inlineStr"/>
       <c r="CU138" t="inlineStr"/>
-      <c r="CV138" t="inlineStr"/>
+      <c r="CV138" t="n">
+        <v>50</v>
+      </c>
       <c r="CW138" t="inlineStr"/>
       <c r="CX138" t="inlineStr"/>
-      <c r="CY138" t="inlineStr"/>
+      <c r="CY138" t="n">
+        <v>60</v>
+      </c>
       <c r="CZ138" t="inlineStr"/>
       <c r="DA138" t="inlineStr"/>
     </row>
@@ -42480,13 +43302,19 @@
       <c r="CR139" t="n">
         <v>2106</v>
       </c>
-      <c r="CS139" t="inlineStr"/>
+      <c r="CS139" t="n">
+        <v>545</v>
+      </c>
       <c r="CT139" t="inlineStr"/>
       <c r="CU139" t="inlineStr"/>
-      <c r="CV139" t="inlineStr"/>
+      <c r="CV139" t="n">
+        <v>739</v>
+      </c>
       <c r="CW139" t="inlineStr"/>
       <c r="CX139" t="inlineStr"/>
-      <c r="CY139" t="inlineStr"/>
+      <c r="CY139" t="n">
+        <v>491</v>
+      </c>
       <c r="CZ139" t="inlineStr"/>
       <c r="DA139" t="inlineStr"/>
     </row>
@@ -42781,13 +43609,19 @@
       <c r="CR140" t="n">
         <v>2795</v>
       </c>
-      <c r="CS140" t="inlineStr"/>
+      <c r="CS140" t="n">
+        <v>1092</v>
+      </c>
       <c r="CT140" t="inlineStr"/>
       <c r="CU140" t="inlineStr"/>
-      <c r="CV140" t="inlineStr"/>
+      <c r="CV140" t="n">
+        <v>806</v>
+      </c>
       <c r="CW140" t="inlineStr"/>
       <c r="CX140" t="inlineStr"/>
-      <c r="CY140" t="inlineStr"/>
+      <c r="CY140" t="n">
+        <v>682</v>
+      </c>
       <c r="CZ140" t="inlineStr"/>
       <c r="DA140" t="inlineStr"/>
     </row>
@@ -43082,13 +43916,19 @@
       <c r="CR141" t="n">
         <v>3515</v>
       </c>
-      <c r="CS141" t="inlineStr"/>
+      <c r="CS141" t="n">
+        <v>1023</v>
+      </c>
       <c r="CT141" t="inlineStr"/>
       <c r="CU141" t="inlineStr"/>
-      <c r="CV141" t="inlineStr"/>
+      <c r="CV141" t="n">
+        <v>2187</v>
+      </c>
       <c r="CW141" t="inlineStr"/>
       <c r="CX141" t="inlineStr"/>
-      <c r="CY141" t="inlineStr"/>
+      <c r="CY141" t="n">
+        <v>1241</v>
+      </c>
       <c r="CZ141" t="inlineStr"/>
       <c r="DA141" t="inlineStr"/>
     </row>
@@ -43383,13 +44223,19 @@
       <c r="CR142" t="n">
         <v>2734</v>
       </c>
-      <c r="CS142" t="inlineStr"/>
+      <c r="CS142" t="n">
+        <v>713</v>
+      </c>
       <c r="CT142" t="inlineStr"/>
       <c r="CU142" t="inlineStr"/>
-      <c r="CV142" t="inlineStr"/>
+      <c r="CV142" t="n">
+        <v>845</v>
+      </c>
       <c r="CW142" t="inlineStr"/>
       <c r="CX142" t="inlineStr"/>
-      <c r="CY142" t="inlineStr"/>
+      <c r="CY142" t="n">
+        <v>481</v>
+      </c>
       <c r="CZ142" t="inlineStr"/>
       <c r="DA142" t="inlineStr"/>
     </row>
@@ -43684,13 +44530,19 @@
       <c r="CR143" t="n">
         <v>1299</v>
       </c>
-      <c r="CS143" t="inlineStr"/>
+      <c r="CS143" t="n">
+        <v>292</v>
+      </c>
       <c r="CT143" t="inlineStr"/>
       <c r="CU143" t="inlineStr"/>
-      <c r="CV143" t="inlineStr"/>
+      <c r="CV143" t="n">
+        <v>415</v>
+      </c>
       <c r="CW143" t="inlineStr"/>
       <c r="CX143" t="inlineStr"/>
-      <c r="CY143" t="inlineStr"/>
+      <c r="CY143" t="n">
+        <v>317</v>
+      </c>
       <c r="CZ143" t="inlineStr"/>
       <c r="DA143" t="inlineStr"/>
     </row>
@@ -43985,13 +44837,19 @@
       <c r="CR144" t="n">
         <v>3707</v>
       </c>
-      <c r="CS144" t="inlineStr"/>
+      <c r="CS144" t="n">
+        <v>702</v>
+      </c>
       <c r="CT144" t="inlineStr"/>
       <c r="CU144" t="inlineStr"/>
-      <c r="CV144" t="inlineStr"/>
+      <c r="CV144" t="n">
+        <v>1056</v>
+      </c>
       <c r="CW144" t="inlineStr"/>
       <c r="CX144" t="inlineStr"/>
-      <c r="CY144" t="inlineStr"/>
+      <c r="CY144" t="n">
+        <v>524</v>
+      </c>
       <c r="CZ144" t="inlineStr"/>
       <c r="DA144" t="inlineStr"/>
     </row>
@@ -44286,13 +45144,19 @@
       <c r="CR145" t="n">
         <v>991</v>
       </c>
-      <c r="CS145" t="inlineStr"/>
+      <c r="CS145" t="n">
+        <v>229</v>
+      </c>
       <c r="CT145" t="inlineStr"/>
       <c r="CU145" t="inlineStr"/>
-      <c r="CV145" t="inlineStr"/>
+      <c r="CV145" t="n">
+        <v>441</v>
+      </c>
       <c r="CW145" t="inlineStr"/>
       <c r="CX145" t="inlineStr"/>
-      <c r="CY145" t="inlineStr"/>
+      <c r="CY145" t="n">
+        <v>191</v>
+      </c>
       <c r="CZ145" t="inlineStr"/>
       <c r="DA145" t="inlineStr"/>
     </row>
@@ -44587,13 +45451,19 @@
       <c r="CR146" t="n">
         <v>622</v>
       </c>
-      <c r="CS146" t="inlineStr"/>
+      <c r="CS146" t="n">
+        <v>227</v>
+      </c>
       <c r="CT146" t="inlineStr"/>
       <c r="CU146" t="inlineStr"/>
-      <c r="CV146" t="inlineStr"/>
+      <c r="CV146" t="n">
+        <v>213</v>
+      </c>
       <c r="CW146" t="inlineStr"/>
       <c r="CX146" t="inlineStr"/>
-      <c r="CY146" t="inlineStr"/>
+      <c r="CY146" t="n">
+        <v>163</v>
+      </c>
       <c r="CZ146" t="inlineStr"/>
       <c r="DA146" t="inlineStr"/>
     </row>
@@ -44888,13 +45758,19 @@
       <c r="CR147" t="n">
         <v>349</v>
       </c>
-      <c r="CS147" t="inlineStr"/>
+      <c r="CS147" t="n">
+        <v>108</v>
+      </c>
       <c r="CT147" t="inlineStr"/>
       <c r="CU147" t="inlineStr"/>
-      <c r="CV147" t="inlineStr"/>
+      <c r="CV147" t="n">
+        <v>74</v>
+      </c>
       <c r="CW147" t="inlineStr"/>
       <c r="CX147" t="inlineStr"/>
-      <c r="CY147" t="inlineStr"/>
+      <c r="CY147" t="n">
+        <v>46</v>
+      </c>
       <c r="CZ147" t="inlineStr"/>
       <c r="DA147" t="inlineStr"/>
     </row>
@@ -45189,13 +46065,19 @@
       <c r="CR148" t="n">
         <v>1376</v>
       </c>
-      <c r="CS148" t="inlineStr"/>
+      <c r="CS148" t="n">
+        <v>376</v>
+      </c>
       <c r="CT148" t="inlineStr"/>
       <c r="CU148" t="inlineStr"/>
-      <c r="CV148" t="inlineStr"/>
+      <c r="CV148" t="n">
+        <v>474</v>
+      </c>
       <c r="CW148" t="inlineStr"/>
       <c r="CX148" t="inlineStr"/>
-      <c r="CY148" t="inlineStr"/>
+      <c r="CY148" t="n">
+        <v>282</v>
+      </c>
       <c r="CZ148" t="inlineStr"/>
       <c r="DA148" t="inlineStr"/>
     </row>
@@ -45490,13 +46372,19 @@
       <c r="CR149" t="n">
         <v>421</v>
       </c>
-      <c r="CS149" t="inlineStr"/>
+      <c r="CS149" t="n">
+        <v>128</v>
+      </c>
       <c r="CT149" t="inlineStr"/>
       <c r="CU149" t="inlineStr"/>
-      <c r="CV149" t="inlineStr"/>
+      <c r="CV149" t="n">
+        <v>133</v>
+      </c>
       <c r="CW149" t="inlineStr"/>
       <c r="CX149" t="inlineStr"/>
-      <c r="CY149" t="inlineStr"/>
+      <c r="CY149" t="n">
+        <v>100</v>
+      </c>
       <c r="CZ149" t="inlineStr"/>
       <c r="DA149" t="inlineStr"/>
     </row>
@@ -45791,13 +46679,19 @@
       <c r="CR150" t="n">
         <v>715</v>
       </c>
-      <c r="CS150" t="inlineStr"/>
+      <c r="CS150" t="n">
+        <v>179</v>
+      </c>
       <c r="CT150" t="inlineStr"/>
       <c r="CU150" t="inlineStr"/>
-      <c r="CV150" t="inlineStr"/>
+      <c r="CV150" t="n">
+        <v>269</v>
+      </c>
       <c r="CW150" t="inlineStr"/>
       <c r="CX150" t="inlineStr"/>
-      <c r="CY150" t="inlineStr"/>
+      <c r="CY150" t="n">
+        <v>159</v>
+      </c>
       <c r="CZ150" t="inlineStr"/>
       <c r="DA150" t="inlineStr"/>
     </row>
@@ -46092,13 +46986,19 @@
       <c r="CR151" t="n">
         <v>1634</v>
       </c>
-      <c r="CS151" t="inlineStr"/>
+      <c r="CS151" t="n">
+        <v>336</v>
+      </c>
       <c r="CT151" t="inlineStr"/>
       <c r="CU151" t="inlineStr"/>
-      <c r="CV151" t="inlineStr"/>
+      <c r="CV151" t="n">
+        <v>627</v>
+      </c>
       <c r="CW151" t="inlineStr"/>
       <c r="CX151" t="inlineStr"/>
-      <c r="CY151" t="inlineStr"/>
+      <c r="CY151" t="n">
+        <v>249</v>
+      </c>
       <c r="CZ151" t="inlineStr"/>
       <c r="DA151" t="inlineStr"/>
     </row>
@@ -46393,13 +47293,19 @@
       <c r="CR152" t="n">
         <v>3159</v>
       </c>
-      <c r="CS152" t="inlineStr"/>
+      <c r="CS152" t="n">
+        <v>1174</v>
+      </c>
       <c r="CT152" t="inlineStr"/>
       <c r="CU152" t="inlineStr"/>
-      <c r="CV152" t="inlineStr"/>
+      <c r="CV152" t="n">
+        <v>1944</v>
+      </c>
       <c r="CW152" t="inlineStr"/>
       <c r="CX152" t="inlineStr"/>
-      <c r="CY152" t="inlineStr"/>
+      <c r="CY152" t="n">
+        <v>1239</v>
+      </c>
       <c r="CZ152" t="inlineStr"/>
       <c r="DA152" t="inlineStr"/>
     </row>
@@ -46694,13 +47600,19 @@
       <c r="CR153" t="n">
         <v>2157</v>
       </c>
-      <c r="CS153" t="inlineStr"/>
+      <c r="CS153" t="n">
+        <v>557</v>
+      </c>
       <c r="CT153" t="inlineStr"/>
       <c r="CU153" t="inlineStr"/>
-      <c r="CV153" t="inlineStr"/>
+      <c r="CV153" t="n">
+        <v>567</v>
+      </c>
       <c r="CW153" t="inlineStr"/>
       <c r="CX153" t="inlineStr"/>
-      <c r="CY153" t="inlineStr"/>
+      <c r="CY153" t="n">
+        <v>313</v>
+      </c>
       <c r="CZ153" t="inlineStr"/>
       <c r="DA153" t="inlineStr"/>
     </row>
@@ -46995,13 +47907,19 @@
       <c r="CR154" t="n">
         <v>324</v>
       </c>
-      <c r="CS154" t="inlineStr"/>
+      <c r="CS154" t="n">
+        <v>98</v>
+      </c>
       <c r="CT154" t="inlineStr"/>
       <c r="CU154" t="inlineStr"/>
-      <c r="CV154" t="inlineStr"/>
+      <c r="CV154" t="n">
+        <v>58</v>
+      </c>
       <c r="CW154" t="inlineStr"/>
       <c r="CX154" t="inlineStr"/>
-      <c r="CY154" t="inlineStr"/>
+      <c r="CY154" t="n">
+        <v>66</v>
+      </c>
       <c r="CZ154" t="inlineStr"/>
       <c r="DA154" t="inlineStr"/>
     </row>
@@ -47296,13 +48214,19 @@
       <c r="CR155" t="n">
         <v>434</v>
       </c>
-      <c r="CS155" t="inlineStr"/>
+      <c r="CS155" t="n">
+        <v>95</v>
+      </c>
       <c r="CT155" t="inlineStr"/>
       <c r="CU155" t="inlineStr"/>
-      <c r="CV155" t="inlineStr"/>
+      <c r="CV155" t="n">
+        <v>147</v>
+      </c>
       <c r="CW155" t="inlineStr"/>
       <c r="CX155" t="inlineStr"/>
-      <c r="CY155" t="inlineStr"/>
+      <c r="CY155" t="n">
+        <v>114</v>
+      </c>
       <c r="CZ155" t="inlineStr"/>
       <c r="DA155" t="inlineStr"/>
     </row>
@@ -47597,13 +48521,19 @@
       <c r="CR156" t="n">
         <v>467</v>
       </c>
-      <c r="CS156" t="inlineStr"/>
+      <c r="CS156" t="n">
+        <v>136</v>
+      </c>
       <c r="CT156" t="inlineStr"/>
       <c r="CU156" t="inlineStr"/>
-      <c r="CV156" t="inlineStr"/>
+      <c r="CV156" t="n">
+        <v>168</v>
+      </c>
       <c r="CW156" t="inlineStr"/>
       <c r="CX156" t="inlineStr"/>
-      <c r="CY156" t="inlineStr"/>
+      <c r="CY156" t="n">
+        <v>98</v>
+      </c>
       <c r="CZ156" t="inlineStr"/>
       <c r="DA156" t="inlineStr"/>
     </row>
@@ -47898,13 +48828,19 @@
       <c r="CR157" t="n">
         <v>672</v>
       </c>
-      <c r="CS157" t="inlineStr"/>
+      <c r="CS157" t="n">
+        <v>189</v>
+      </c>
       <c r="CT157" t="inlineStr"/>
       <c r="CU157" t="inlineStr"/>
-      <c r="CV157" t="inlineStr"/>
+      <c r="CV157" t="n">
+        <v>152</v>
+      </c>
       <c r="CW157" t="inlineStr"/>
       <c r="CX157" t="inlineStr"/>
-      <c r="CY157" t="inlineStr"/>
+      <c r="CY157" t="n">
+        <v>97</v>
+      </c>
       <c r="CZ157" t="inlineStr"/>
       <c r="DA157" t="inlineStr"/>
     </row>
@@ -48199,13 +49135,19 @@
       <c r="CR158" t="n">
         <v>54</v>
       </c>
-      <c r="CS158" t="inlineStr"/>
+      <c r="CS158" t="n">
+        <v>26</v>
+      </c>
       <c r="CT158" t="inlineStr"/>
       <c r="CU158" t="inlineStr"/>
-      <c r="CV158" t="inlineStr"/>
+      <c r="CV158" t="n">
+        <v>6</v>
+      </c>
       <c r="CW158" t="inlineStr"/>
       <c r="CX158" t="inlineStr"/>
-      <c r="CY158" t="inlineStr"/>
+      <c r="CY158" t="n">
+        <v>3</v>
+      </c>
       <c r="CZ158" t="inlineStr"/>
       <c r="DA158" t="inlineStr"/>
     </row>
@@ -48500,13 +49442,19 @@
       <c r="CR159" t="n">
         <v>122</v>
       </c>
-      <c r="CS159" t="inlineStr"/>
+      <c r="CS159" t="n">
+        <v>36</v>
+      </c>
       <c r="CT159" t="inlineStr"/>
       <c r="CU159" t="inlineStr"/>
-      <c r="CV159" t="inlineStr"/>
+      <c r="CV159" t="n">
+        <v>31</v>
+      </c>
       <c r="CW159" t="inlineStr"/>
       <c r="CX159" t="inlineStr"/>
-      <c r="CY159" t="inlineStr"/>
+      <c r="CY159" t="n">
+        <v>17</v>
+      </c>
       <c r="CZ159" t="inlineStr"/>
       <c r="DA159" t="inlineStr"/>
     </row>
@@ -48801,13 +49749,19 @@
       <c r="CR160" t="n">
         <v>205</v>
       </c>
-      <c r="CS160" t="inlineStr"/>
+      <c r="CS160" t="n">
+        <v>92</v>
+      </c>
       <c r="CT160" t="inlineStr"/>
       <c r="CU160" t="inlineStr"/>
-      <c r="CV160" t="inlineStr"/>
+      <c r="CV160" t="n">
+        <v>117</v>
+      </c>
       <c r="CW160" t="inlineStr"/>
       <c r="CX160" t="inlineStr"/>
-      <c r="CY160" t="inlineStr"/>
+      <c r="CY160" t="n">
+        <v>87</v>
+      </c>
       <c r="CZ160" t="inlineStr"/>
       <c r="DA160" t="inlineStr"/>
     </row>
@@ -49102,13 +50056,19 @@
       <c r="CR161" t="n">
         <v>255</v>
       </c>
-      <c r="CS161" t="inlineStr"/>
+      <c r="CS161" t="n">
+        <v>103</v>
+      </c>
       <c r="CT161" t="inlineStr"/>
       <c r="CU161" t="inlineStr"/>
-      <c r="CV161" t="inlineStr"/>
+      <c r="CV161" t="n">
+        <v>88</v>
+      </c>
       <c r="CW161" t="inlineStr"/>
       <c r="CX161" t="inlineStr"/>
-      <c r="CY161" t="inlineStr"/>
+      <c r="CY161" t="n">
+        <v>79</v>
+      </c>
       <c r="CZ161" t="inlineStr"/>
       <c r="DA161" t="inlineStr"/>
     </row>
@@ -49403,13 +50363,19 @@
       <c r="CR162" t="n">
         <v>240</v>
       </c>
-      <c r="CS162" t="inlineStr"/>
+      <c r="CS162" t="n">
+        <v>76</v>
+      </c>
       <c r="CT162" t="inlineStr"/>
       <c r="CU162" t="inlineStr"/>
-      <c r="CV162" t="inlineStr"/>
+      <c r="CV162" t="n">
+        <v>61</v>
+      </c>
       <c r="CW162" t="inlineStr"/>
       <c r="CX162" t="inlineStr"/>
-      <c r="CY162" t="inlineStr"/>
+      <c r="CY162" t="n">
+        <v>46</v>
+      </c>
       <c r="CZ162" t="inlineStr"/>
       <c r="DA162" t="inlineStr"/>
     </row>
@@ -49702,13 +50668,19 @@
       <c r="CR163" t="n">
         <v>172</v>
       </c>
-      <c r="CS163" t="inlineStr"/>
+      <c r="CS163" t="n">
+        <v>96</v>
+      </c>
       <c r="CT163" t="inlineStr"/>
       <c r="CU163" t="inlineStr"/>
-      <c r="CV163" t="inlineStr"/>
+      <c r="CV163" t="n">
+        <v>53</v>
+      </c>
       <c r="CW163" t="inlineStr"/>
       <c r="CX163" t="inlineStr"/>
-      <c r="CY163" t="inlineStr"/>
+      <c r="CY163" t="n">
+        <v>56</v>
+      </c>
       <c r="CZ163" t="inlineStr"/>
       <c r="DA163" t="inlineStr"/>
     </row>
@@ -50003,13 +50975,19 @@
       <c r="CR164" t="n">
         <v>270</v>
       </c>
-      <c r="CS164" t="inlineStr"/>
+      <c r="CS164" t="n">
+        <v>194</v>
+      </c>
       <c r="CT164" t="inlineStr"/>
       <c r="CU164" t="inlineStr"/>
-      <c r="CV164" t="inlineStr"/>
+      <c r="CV164" t="n">
+        <v>77</v>
+      </c>
       <c r="CW164" t="inlineStr"/>
       <c r="CX164" t="inlineStr"/>
-      <c r="CY164" t="inlineStr"/>
+      <c r="CY164" t="n">
+        <v>46</v>
+      </c>
       <c r="CZ164" t="inlineStr"/>
       <c r="DA164" t="inlineStr"/>
     </row>
@@ -50304,13 +51282,19 @@
       <c r="CR165" t="n">
         <v>493</v>
       </c>
-      <c r="CS165" t="inlineStr"/>
+      <c r="CS165" t="n">
+        <v>105</v>
+      </c>
       <c r="CT165" t="inlineStr"/>
       <c r="CU165" t="inlineStr"/>
-      <c r="CV165" t="inlineStr"/>
+      <c r="CV165" t="n">
+        <v>165</v>
+      </c>
       <c r="CW165" t="inlineStr"/>
       <c r="CX165" t="inlineStr"/>
-      <c r="CY165" t="inlineStr"/>
+      <c r="CY165" t="n">
+        <v>108</v>
+      </c>
       <c r="CZ165" t="inlineStr"/>
       <c r="DA165" t="inlineStr"/>
     </row>
@@ -50605,13 +51589,19 @@
       <c r="CR166" t="n">
         <v>470</v>
       </c>
-      <c r="CS166" t="inlineStr"/>
+      <c r="CS166" t="n">
+        <v>196</v>
+      </c>
       <c r="CT166" t="inlineStr"/>
       <c r="CU166" t="inlineStr"/>
-      <c r="CV166" t="inlineStr"/>
+      <c r="CV166" t="n">
+        <v>252</v>
+      </c>
       <c r="CW166" t="inlineStr"/>
       <c r="CX166" t="inlineStr"/>
-      <c r="CY166" t="inlineStr"/>
+      <c r="CY166" t="n">
+        <v>221</v>
+      </c>
       <c r="CZ166" t="inlineStr"/>
       <c r="DA166" t="inlineStr"/>
     </row>
@@ -50906,13 +51896,19 @@
       <c r="CR167" t="n">
         <v>537</v>
       </c>
-      <c r="CS167" t="inlineStr"/>
+      <c r="CS167" t="n">
+        <v>162</v>
+      </c>
       <c r="CT167" t="inlineStr"/>
       <c r="CU167" t="inlineStr"/>
-      <c r="CV167" t="inlineStr"/>
+      <c r="CV167" t="n">
+        <v>153</v>
+      </c>
       <c r="CW167" t="inlineStr"/>
       <c r="CX167" t="inlineStr"/>
-      <c r="CY167" t="inlineStr"/>
+      <c r="CY167" t="n">
+        <v>101</v>
+      </c>
       <c r="CZ167" t="inlineStr"/>
       <c r="DA167" t="inlineStr"/>
     </row>
@@ -51207,13 +52203,19 @@
       <c r="CR168" t="n">
         <v>41</v>
       </c>
-      <c r="CS168" t="inlineStr"/>
+      <c r="CS168" t="n">
+        <v>15</v>
+      </c>
       <c r="CT168" t="inlineStr"/>
       <c r="CU168" t="inlineStr"/>
-      <c r="CV168" t="inlineStr"/>
+      <c r="CV168" t="n">
+        <v>25</v>
+      </c>
       <c r="CW168" t="inlineStr"/>
       <c r="CX168" t="inlineStr"/>
-      <c r="CY168" t="inlineStr"/>
+      <c r="CY168" t="n">
+        <v>7</v>
+      </c>
       <c r="CZ168" t="inlineStr"/>
       <c r="DA168" t="inlineStr"/>
     </row>
@@ -51508,13 +52510,19 @@
       <c r="CR169" t="n">
         <v>168</v>
       </c>
-      <c r="CS169" t="inlineStr"/>
+      <c r="CS169" t="n">
+        <v>107</v>
+      </c>
       <c r="CT169" t="inlineStr"/>
       <c r="CU169" t="inlineStr"/>
-      <c r="CV169" t="inlineStr"/>
+      <c r="CV169" t="n">
+        <v>48</v>
+      </c>
       <c r="CW169" t="inlineStr"/>
       <c r="CX169" t="inlineStr"/>
-      <c r="CY169" t="inlineStr"/>
+      <c r="CY169" t="n">
+        <v>37</v>
+      </c>
       <c r="CZ169" t="inlineStr"/>
       <c r="DA169" t="inlineStr"/>
     </row>
@@ -51809,13 +52817,19 @@
       <c r="CR170" t="n">
         <v>236</v>
       </c>
-      <c r="CS170" t="inlineStr"/>
+      <c r="CS170" t="n">
+        <v>94</v>
+      </c>
       <c r="CT170" t="inlineStr"/>
       <c r="CU170" t="inlineStr"/>
-      <c r="CV170" t="inlineStr"/>
+      <c r="CV170" t="n">
+        <v>66</v>
+      </c>
       <c r="CW170" t="inlineStr"/>
       <c r="CX170" t="inlineStr"/>
-      <c r="CY170" t="inlineStr"/>
+      <c r="CY170" t="n">
+        <v>61</v>
+      </c>
       <c r="CZ170" t="inlineStr"/>
       <c r="DA170" t="inlineStr"/>
     </row>
@@ -52110,13 +53124,19 @@
       <c r="CR171" t="n">
         <v>185</v>
       </c>
-      <c r="CS171" t="inlineStr"/>
+      <c r="CS171" t="n">
+        <v>59</v>
+      </c>
       <c r="CT171" t="inlineStr"/>
       <c r="CU171" t="inlineStr"/>
-      <c r="CV171" t="inlineStr"/>
+      <c r="CV171" t="n">
+        <v>42</v>
+      </c>
       <c r="CW171" t="inlineStr"/>
       <c r="CX171" t="inlineStr"/>
-      <c r="CY171" t="inlineStr"/>
+      <c r="CY171" t="n">
+        <v>15</v>
+      </c>
       <c r="CZ171" t="inlineStr"/>
       <c r="DA171" t="inlineStr"/>
     </row>
@@ -52411,13 +53431,19 @@
       <c r="CR172" t="n">
         <v>305</v>
       </c>
-      <c r="CS172" t="inlineStr"/>
+      <c r="CS172" t="n">
+        <v>100</v>
+      </c>
       <c r="CT172" t="inlineStr"/>
       <c r="CU172" t="inlineStr"/>
-      <c r="CV172" t="inlineStr"/>
+      <c r="CV172" t="n">
+        <v>128</v>
+      </c>
       <c r="CW172" t="inlineStr"/>
       <c r="CX172" t="inlineStr"/>
-      <c r="CY172" t="inlineStr"/>
+      <c r="CY172" t="n">
+        <v>76</v>
+      </c>
       <c r="CZ172" t="inlineStr"/>
       <c r="DA172" t="inlineStr"/>
     </row>
@@ -52712,13 +53738,19 @@
       <c r="CR173" t="n">
         <v>2649</v>
       </c>
-      <c r="CS173" t="inlineStr"/>
+      <c r="CS173" t="n">
+        <v>687</v>
+      </c>
       <c r="CT173" t="inlineStr"/>
       <c r="CU173" t="inlineStr"/>
-      <c r="CV173" t="inlineStr"/>
+      <c r="CV173" t="n">
+        <v>770</v>
+      </c>
       <c r="CW173" t="inlineStr"/>
       <c r="CX173" t="inlineStr"/>
-      <c r="CY173" t="inlineStr"/>
+      <c r="CY173" t="n">
+        <v>463</v>
+      </c>
       <c r="CZ173" t="inlineStr"/>
       <c r="DA173" t="inlineStr"/>
     </row>
@@ -53013,13 +54045,19 @@
       <c r="CR174" t="n">
         <v>710</v>
       </c>
-      <c r="CS174" t="inlineStr"/>
+      <c r="CS174" t="n">
+        <v>167</v>
+      </c>
       <c r="CT174" t="inlineStr"/>
       <c r="CU174" t="inlineStr"/>
-      <c r="CV174" t="inlineStr"/>
+      <c r="CV174" t="n">
+        <v>217</v>
+      </c>
       <c r="CW174" t="inlineStr"/>
       <c r="CX174" t="inlineStr"/>
-      <c r="CY174" t="inlineStr"/>
+      <c r="CY174" t="n">
+        <v>99</v>
+      </c>
       <c r="CZ174" t="inlineStr"/>
       <c r="DA174" t="inlineStr"/>
     </row>
@@ -53314,13 +54352,19 @@
       <c r="CR175" t="n">
         <v>454</v>
       </c>
-      <c r="CS175" t="inlineStr"/>
+      <c r="CS175" t="n">
+        <v>78</v>
+      </c>
       <c r="CT175" t="inlineStr"/>
       <c r="CU175" t="inlineStr"/>
-      <c r="CV175" t="inlineStr"/>
+      <c r="CV175" t="n">
+        <v>188</v>
+      </c>
       <c r="CW175" t="inlineStr"/>
       <c r="CX175" t="inlineStr"/>
-      <c r="CY175" t="inlineStr"/>
+      <c r="CY175" t="n">
+        <v>85</v>
+      </c>
       <c r="CZ175" t="inlineStr"/>
       <c r="DA175" t="inlineStr"/>
     </row>
@@ -53615,13 +54659,19 @@
       <c r="CR176" t="n">
         <v>72</v>
       </c>
-      <c r="CS176" t="inlineStr"/>
+      <c r="CS176" t="n">
+        <v>34</v>
+      </c>
       <c r="CT176" t="inlineStr"/>
       <c r="CU176" t="inlineStr"/>
-      <c r="CV176" t="inlineStr"/>
+      <c r="CV176" t="n">
+        <v>22</v>
+      </c>
       <c r="CW176" t="inlineStr"/>
       <c r="CX176" t="inlineStr"/>
-      <c r="CY176" t="inlineStr"/>
+      <c r="CY176" t="n">
+        <v>12</v>
+      </c>
       <c r="CZ176" t="inlineStr"/>
       <c r="DA176" t="inlineStr"/>
     </row>
@@ -53916,13 +54966,19 @@
       <c r="CR177" t="n">
         <v>206</v>
       </c>
-      <c r="CS177" t="inlineStr"/>
+      <c r="CS177" t="n">
+        <v>54</v>
+      </c>
       <c r="CT177" t="inlineStr"/>
       <c r="CU177" t="inlineStr"/>
-      <c r="CV177" t="inlineStr"/>
+      <c r="CV177" t="n">
+        <v>82</v>
+      </c>
       <c r="CW177" t="inlineStr"/>
       <c r="CX177" t="inlineStr"/>
-      <c r="CY177" t="inlineStr"/>
+      <c r="CY177" t="n">
+        <v>31</v>
+      </c>
       <c r="CZ177" t="inlineStr"/>
       <c r="DA177" t="inlineStr"/>
     </row>
@@ -54217,13 +55273,19 @@
       <c r="CR178" t="n">
         <v>376</v>
       </c>
-      <c r="CS178" t="inlineStr"/>
+      <c r="CS178" t="n">
+        <v>109</v>
+      </c>
       <c r="CT178" t="inlineStr"/>
       <c r="CU178" t="inlineStr"/>
-      <c r="CV178" t="inlineStr"/>
+      <c r="CV178" t="n">
+        <v>143</v>
+      </c>
       <c r="CW178" t="inlineStr"/>
       <c r="CX178" t="inlineStr"/>
-      <c r="CY178" t="inlineStr"/>
+      <c r="CY178" t="n">
+        <v>90</v>
+      </c>
       <c r="CZ178" t="inlineStr"/>
       <c r="DA178" t="inlineStr"/>
     </row>
@@ -54518,13 +55580,19 @@
       <c r="CR179" t="n">
         <v>854</v>
       </c>
-      <c r="CS179" t="inlineStr"/>
+      <c r="CS179" t="n">
+        <v>238</v>
+      </c>
       <c r="CT179" t="inlineStr"/>
       <c r="CU179" t="inlineStr"/>
-      <c r="CV179" t="inlineStr"/>
+      <c r="CV179" t="n">
+        <v>249</v>
+      </c>
       <c r="CW179" t="inlineStr"/>
       <c r="CX179" t="inlineStr"/>
-      <c r="CY179" t="inlineStr"/>
+      <c r="CY179" t="n">
+        <v>97</v>
+      </c>
       <c r="CZ179" t="inlineStr"/>
       <c r="DA179" t="inlineStr"/>
     </row>
@@ -54819,13 +55887,19 @@
       <c r="CR180" t="n">
         <v>2142</v>
       </c>
-      <c r="CS180" t="inlineStr"/>
+      <c r="CS180" t="n">
+        <v>668</v>
+      </c>
       <c r="CT180" t="inlineStr"/>
       <c r="CU180" t="inlineStr"/>
-      <c r="CV180" t="inlineStr"/>
+      <c r="CV180" t="n">
+        <v>1758</v>
+      </c>
       <c r="CW180" t="inlineStr"/>
       <c r="CX180" t="inlineStr"/>
-      <c r="CY180" t="inlineStr"/>
+      <c r="CY180" t="n">
+        <v>951</v>
+      </c>
       <c r="CZ180" t="inlineStr"/>
       <c r="DA180" t="inlineStr"/>
     </row>
@@ -55120,13 +56194,19 @@
       <c r="CR181" t="n">
         <v>433</v>
       </c>
-      <c r="CS181" t="inlineStr"/>
+      <c r="CS181" t="n">
+        <v>160</v>
+      </c>
       <c r="CT181" t="inlineStr"/>
       <c r="CU181" t="inlineStr"/>
-      <c r="CV181" t="inlineStr"/>
+      <c r="CV181" t="n">
+        <v>156</v>
+      </c>
       <c r="CW181" t="inlineStr"/>
       <c r="CX181" t="inlineStr"/>
-      <c r="CY181" t="inlineStr"/>
+      <c r="CY181" t="n">
+        <v>137</v>
+      </c>
       <c r="CZ181" t="inlineStr"/>
       <c r="DA181" t="inlineStr"/>
     </row>
@@ -55421,13 +56501,19 @@
       <c r="CR182" t="n">
         <v>440</v>
       </c>
-      <c r="CS182" t="inlineStr"/>
+      <c r="CS182" t="n">
+        <v>196</v>
+      </c>
       <c r="CT182" t="inlineStr"/>
       <c r="CU182" t="inlineStr"/>
-      <c r="CV182" t="inlineStr"/>
+      <c r="CV182" t="n">
+        <v>129</v>
+      </c>
       <c r="CW182" t="inlineStr"/>
       <c r="CX182" t="inlineStr"/>
-      <c r="CY182" t="inlineStr"/>
+      <c r="CY182" t="n">
+        <v>92</v>
+      </c>
       <c r="CZ182" t="inlineStr"/>
       <c r="DA182" t="inlineStr"/>
     </row>
@@ -55722,13 +56808,19 @@
       <c r="CR183" t="n">
         <v>2009</v>
       </c>
-      <c r="CS183" t="inlineStr"/>
+      <c r="CS183" t="n">
+        <v>716</v>
+      </c>
       <c r="CT183" t="inlineStr"/>
       <c r="CU183" t="inlineStr"/>
-      <c r="CV183" t="inlineStr"/>
+      <c r="CV183" t="n">
+        <v>609</v>
+      </c>
       <c r="CW183" t="inlineStr"/>
       <c r="CX183" t="inlineStr"/>
-      <c r="CY183" t="inlineStr"/>
+      <c r="CY183" t="n">
+        <v>248</v>
+      </c>
       <c r="CZ183" t="inlineStr"/>
       <c r="DA183" t="inlineStr"/>
     </row>
@@ -56023,13 +57115,19 @@
       <c r="CR184" t="n">
         <v>157</v>
       </c>
-      <c r="CS184" t="inlineStr"/>
+      <c r="CS184" t="n">
+        <v>84</v>
+      </c>
       <c r="CT184" t="inlineStr"/>
       <c r="CU184" t="inlineStr"/>
-      <c r="CV184" t="inlineStr"/>
+      <c r="CV184" t="n">
+        <v>71</v>
+      </c>
       <c r="CW184" t="inlineStr"/>
       <c r="CX184" t="inlineStr"/>
-      <c r="CY184" t="inlineStr"/>
+      <c r="CY184" t="n">
+        <v>44</v>
+      </c>
       <c r="CZ184" t="inlineStr"/>
       <c r="DA184" t="inlineStr"/>
     </row>
@@ -56324,13 +57422,19 @@
       <c r="CR185" t="n">
         <v>123</v>
       </c>
-      <c r="CS185" t="inlineStr"/>
+      <c r="CS185" t="n">
+        <v>66</v>
+      </c>
       <c r="CT185" t="inlineStr"/>
       <c r="CU185" t="inlineStr"/>
-      <c r="CV185" t="inlineStr"/>
+      <c r="CV185" t="n">
+        <v>63</v>
+      </c>
       <c r="CW185" t="inlineStr"/>
       <c r="CX185" t="inlineStr"/>
-      <c r="CY185" t="inlineStr"/>
+      <c r="CY185" t="n">
+        <v>17</v>
+      </c>
       <c r="CZ185" t="inlineStr"/>
       <c r="DA185" t="inlineStr"/>
     </row>
@@ -56625,13 +57729,19 @@
       <c r="CR186" t="n">
         <v>688</v>
       </c>
-      <c r="CS186" t="inlineStr"/>
+      <c r="CS186" t="n">
+        <v>166</v>
+      </c>
       <c r="CT186" t="inlineStr"/>
       <c r="CU186" t="inlineStr"/>
-      <c r="CV186" t="inlineStr"/>
+      <c r="CV186" t="n">
+        <v>229</v>
+      </c>
       <c r="CW186" t="inlineStr"/>
       <c r="CX186" t="inlineStr"/>
-      <c r="CY186" t="inlineStr"/>
+      <c r="CY186" t="n">
+        <v>136</v>
+      </c>
       <c r="CZ186" t="inlineStr"/>
       <c r="DA186" t="inlineStr"/>
     </row>
@@ -56926,13 +58036,19 @@
       <c r="CR187" t="n">
         <v>345</v>
       </c>
-      <c r="CS187" t="inlineStr"/>
+      <c r="CS187" t="n">
+        <v>118</v>
+      </c>
       <c r="CT187" t="inlineStr"/>
       <c r="CU187" t="inlineStr"/>
-      <c r="CV187" t="inlineStr"/>
+      <c r="CV187" t="n">
+        <v>161</v>
+      </c>
       <c r="CW187" t="inlineStr"/>
       <c r="CX187" t="inlineStr"/>
-      <c r="CY187" t="inlineStr"/>
+      <c r="CY187" t="n">
+        <v>70</v>
+      </c>
       <c r="CZ187" t="inlineStr"/>
       <c r="DA187" t="inlineStr"/>
     </row>
@@ -57227,13 +58343,19 @@
       <c r="CR188" t="n">
         <v>2067</v>
       </c>
-      <c r="CS188" t="inlineStr"/>
+      <c r="CS188" t="n">
+        <v>530</v>
+      </c>
       <c r="CT188" t="inlineStr"/>
       <c r="CU188" t="inlineStr"/>
-      <c r="CV188" t="inlineStr"/>
+      <c r="CV188" t="n">
+        <v>579</v>
+      </c>
       <c r="CW188" t="inlineStr"/>
       <c r="CX188" t="inlineStr"/>
-      <c r="CY188" t="inlineStr"/>
+      <c r="CY188" t="n">
+        <v>356</v>
+      </c>
       <c r="CZ188" t="inlineStr"/>
       <c r="DA188" t="inlineStr"/>
     </row>
@@ -57528,13 +58650,19 @@
       <c r="CR189" t="n">
         <v>4003</v>
       </c>
-      <c r="CS189" t="inlineStr"/>
+      <c r="CS189" t="n">
+        <v>775</v>
+      </c>
       <c r="CT189" t="inlineStr"/>
       <c r="CU189" t="inlineStr"/>
-      <c r="CV189" t="inlineStr"/>
+      <c r="CV189" t="n">
+        <v>3174</v>
+      </c>
       <c r="CW189" t="inlineStr"/>
       <c r="CX189" t="inlineStr"/>
-      <c r="CY189" t="inlineStr"/>
+      <c r="CY189" t="n">
+        <v>1821</v>
+      </c>
       <c r="CZ189" t="inlineStr"/>
       <c r="DA189" t="inlineStr"/>
     </row>
@@ -57829,13 +58957,19 @@
       <c r="CR190" t="n">
         <v>1164</v>
       </c>
-      <c r="CS190" t="inlineStr"/>
+      <c r="CS190" t="n">
+        <v>163</v>
+      </c>
       <c r="CT190" t="inlineStr"/>
       <c r="CU190" t="inlineStr"/>
-      <c r="CV190" t="inlineStr"/>
+      <c r="CV190" t="n">
+        <v>228</v>
+      </c>
       <c r="CW190" t="inlineStr"/>
       <c r="CX190" t="inlineStr"/>
-      <c r="CY190" t="inlineStr"/>
+      <c r="CY190" t="n">
+        <v>253</v>
+      </c>
       <c r="CZ190" t="inlineStr"/>
       <c r="DA190" t="inlineStr"/>
     </row>
@@ -58130,13 +59264,19 @@
       <c r="CR191" t="n">
         <v>3188</v>
       </c>
-      <c r="CS191" t="inlineStr"/>
+      <c r="CS191" t="n">
+        <v>1110</v>
+      </c>
       <c r="CT191" t="inlineStr"/>
       <c r="CU191" t="inlineStr"/>
-      <c r="CV191" t="inlineStr"/>
+      <c r="CV191" t="n">
+        <v>921</v>
+      </c>
       <c r="CW191" t="inlineStr"/>
       <c r="CX191" t="inlineStr"/>
-      <c r="CY191" t="inlineStr"/>
+      <c r="CY191" t="n">
+        <v>501</v>
+      </c>
       <c r="CZ191" t="inlineStr"/>
       <c r="DA191" t="inlineStr"/>
     </row>
@@ -58431,13 +59571,19 @@
       <c r="CR192" t="n">
         <v>442</v>
       </c>
-      <c r="CS192" t="inlineStr"/>
+      <c r="CS192" t="n">
+        <v>147</v>
+      </c>
       <c r="CT192" t="inlineStr"/>
       <c r="CU192" t="inlineStr"/>
-      <c r="CV192" t="inlineStr"/>
+      <c r="CV192" t="n">
+        <v>186</v>
+      </c>
       <c r="CW192" t="inlineStr"/>
       <c r="CX192" t="inlineStr"/>
-      <c r="CY192" t="inlineStr"/>
+      <c r="CY192" t="n">
+        <v>115</v>
+      </c>
       <c r="CZ192" t="inlineStr"/>
       <c r="DA192" t="inlineStr"/>
     </row>
@@ -58732,13 +59878,19 @@
       <c r="CR193" t="n">
         <v>206</v>
       </c>
-      <c r="CS193" t="inlineStr"/>
+      <c r="CS193" t="n">
+        <v>41</v>
+      </c>
       <c r="CT193" t="inlineStr"/>
       <c r="CU193" t="inlineStr"/>
-      <c r="CV193" t="inlineStr"/>
+      <c r="CV193" t="n">
+        <v>56</v>
+      </c>
       <c r="CW193" t="inlineStr"/>
       <c r="CX193" t="inlineStr"/>
-      <c r="CY193" t="inlineStr"/>
+      <c r="CY193" t="n">
+        <v>40</v>
+      </c>
       <c r="CZ193" t="inlineStr"/>
       <c r="DA193" t="inlineStr"/>
     </row>
@@ -59033,13 +60185,19 @@
       <c r="CR194" t="n">
         <v>1942</v>
       </c>
-      <c r="CS194" t="inlineStr"/>
+      <c r="CS194" t="n">
+        <v>481</v>
+      </c>
       <c r="CT194" t="inlineStr"/>
       <c r="CU194" t="inlineStr"/>
-      <c r="CV194" t="inlineStr"/>
+      <c r="CV194" t="n">
+        <v>855</v>
+      </c>
       <c r="CW194" t="inlineStr"/>
       <c r="CX194" t="inlineStr"/>
-      <c r="CY194" t="inlineStr"/>
+      <c r="CY194" t="n">
+        <v>574</v>
+      </c>
       <c r="CZ194" t="inlineStr"/>
       <c r="DA194" t="inlineStr"/>
     </row>
@@ -59334,13 +60492,19 @@
       <c r="CR195" t="n">
         <v>588</v>
       </c>
-      <c r="CS195" t="inlineStr"/>
+      <c r="CS195" t="n">
+        <v>12</v>
+      </c>
       <c r="CT195" t="inlineStr"/>
       <c r="CU195" t="inlineStr"/>
-      <c r="CV195" t="inlineStr"/>
+      <c r="CV195" t="n">
+        <v>12</v>
+      </c>
       <c r="CW195" t="inlineStr"/>
       <c r="CX195" t="inlineStr"/>
-      <c r="CY195" t="inlineStr"/>
+      <c r="CY195" t="n">
+        <v>4</v>
+      </c>
       <c r="CZ195" t="inlineStr"/>
       <c r="DA195" t="inlineStr"/>
     </row>
@@ -59635,13 +60799,19 @@
       <c r="CR196" t="n">
         <v>1525</v>
       </c>
-      <c r="CS196" t="inlineStr"/>
+      <c r="CS196" t="n">
+        <v>347</v>
+      </c>
       <c r="CT196" t="inlineStr"/>
       <c r="CU196" t="inlineStr"/>
-      <c r="CV196" t="inlineStr"/>
+      <c r="CV196" t="n">
+        <v>425</v>
+      </c>
       <c r="CW196" t="inlineStr"/>
       <c r="CX196" t="inlineStr"/>
-      <c r="CY196" t="inlineStr"/>
+      <c r="CY196" t="n">
+        <v>230</v>
+      </c>
       <c r="CZ196" t="inlineStr"/>
       <c r="DA196" t="inlineStr"/>
     </row>
@@ -59936,13 +61106,19 @@
       <c r="CR197" t="n">
         <v>2205</v>
       </c>
-      <c r="CS197" t="inlineStr"/>
+      <c r="CS197" t="n">
+        <v>467</v>
+      </c>
       <c r="CT197" t="inlineStr"/>
       <c r="CU197" t="inlineStr"/>
-      <c r="CV197" t="inlineStr"/>
+      <c r="CV197" t="n">
+        <v>621</v>
+      </c>
       <c r="CW197" t="inlineStr"/>
       <c r="CX197" t="inlineStr"/>
-      <c r="CY197" t="inlineStr"/>
+      <c r="CY197" t="n">
+        <v>320</v>
+      </c>
       <c r="CZ197" t="inlineStr"/>
       <c r="DA197" t="inlineStr"/>
     </row>
